--- a/Data WHNPOS.xlsx
+++ b/Data WHNPOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\KuiHao\GPOS Latest Update Joyland Cemara 03 07 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B81AA5-A2A2-4EDA-8AAA-341A7DA7A386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E2B91B-C5D4-4900-B7EE-3888DFB23501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{CD7A48F7-1981-4D2C-B7F6-8C31CE48A823}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="25470" windowHeight="15300" activeTab="2" xr2:uid="{CD7A48F7-1981-4D2C-B7F6-8C31CE48A823}"/>
   </bookViews>
   <sheets>
     <sheet name="Shop" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3189" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="555">
   <si>
     <t>ShopID</t>
   </si>
@@ -1597,570 +1597,129 @@
     <t>PAKET WEEKEND UNLIMITED</t>
   </si>
   <si>
-    <t>CSHR24-001_SI-008</t>
-  </si>
-  <si>
     <t>ADDITIONAL COMPANION</t>
   </si>
   <si>
     <t>30000.00</t>
   </si>
   <si>
-    <t>CSHR24-001_SI-009</t>
-  </si>
-  <si>
-    <t>WEEKDAY 1 HOUR NEW</t>
-  </si>
-  <si>
-    <t>65000.00</t>
-  </si>
-  <si>
-    <t>CSHR24-001_SI-010</t>
-  </si>
-  <si>
-    <t>WEEKDAY 1 HOUR + ACIVITY</t>
-  </si>
-  <si>
-    <t>CSHR24-001_SI-011</t>
-  </si>
-  <si>
     <t>WEEKDAY 2 HOUR + ACTIVITY</t>
   </si>
   <si>
-    <t>CSHR24-001_SI-012</t>
-  </si>
-  <si>
-    <t>WEEKEND 1 HOUR +ACTIVITY</t>
-  </si>
-  <si>
-    <t>CSHR24-001_SI-013</t>
-  </si>
-  <si>
-    <t>WEEKEND 2 HOUR +ACTIVITY</t>
-  </si>
-  <si>
-    <t>CSHR24-002_SI-003</t>
-  </si>
-  <si>
-    <t>CSHR24-002_SI-004</t>
-  </si>
-  <si>
-    <t>CSHR24-002_SI-005</t>
-  </si>
-  <si>
-    <t>CSHR24-002_SI-006</t>
-  </si>
-  <si>
-    <t>CSHR24-002_SI-007</t>
-  </si>
-  <si>
-    <t>CSHR24-002_SI-008</t>
-  </si>
-  <si>
-    <t>CSHR24-002_SI-009</t>
-  </si>
-  <si>
-    <t>WEEKDAY 1 HOURS</t>
-  </si>
-  <si>
-    <t>CSHR24-002_SI-010</t>
-  </si>
-  <si>
-    <t>WEEKDAY 2 HOURS</t>
-  </si>
-  <si>
-    <t>CSHR24-002_SI-011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 HOUR PILKADA </t>
-  </si>
-  <si>
-    <t>64000.00</t>
-  </si>
-  <si>
-    <t>CSHR24-002_SI-012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 HOUR PILKADA </t>
-  </si>
-  <si>
-    <t>77000.00</t>
-  </si>
-  <si>
-    <t>CSHR24-002_SI-013</t>
-  </si>
-  <si>
-    <t>UNLIMITED PILKADA</t>
-  </si>
-  <si>
-    <t>102000.00</t>
-  </si>
-  <si>
-    <t>CSHR24-002_SI-014</t>
-  </si>
-  <si>
-    <t>POTTERY</t>
-  </si>
-  <si>
-    <t>CSHR24-002_SI-015</t>
-  </si>
-  <si>
-    <t>CSHR24-002_SI-016</t>
-  </si>
-  <si>
     <t>WEEKDAY 1 HOUR + ACTIVITY</t>
   </si>
   <si>
-    <t>CSHR24-002_SI-017</t>
-  </si>
-  <si>
-    <t>CSHR24-002_SI-018</t>
-  </si>
-  <si>
     <t>WEEKEND 1 HOUR + ACTIVITY</t>
   </si>
   <si>
-    <t>CSHR24-002_SI-019</t>
-  </si>
-  <si>
     <t>WEEKEND 2 HOUR + ACTIVITY</t>
   </si>
   <si>
-    <t>CSHR24-003_SI-003</t>
-  </si>
-  <si>
-    <t>CSHR24-003_SI-004</t>
-  </si>
-  <si>
-    <t>CSHR24-003_SI-005</t>
-  </si>
-  <si>
-    <t>CSHR24-003_SI-006</t>
-  </si>
-  <si>
-    <t>CSHR24-003_SI-007</t>
-  </si>
-  <si>
-    <t>CSHR24-003_SI-008</t>
-  </si>
-  <si>
-    <t>CSHR24-004_SI-003</t>
-  </si>
-  <si>
-    <t>CSHR24-004_SI-004</t>
-  </si>
-  <si>
-    <t>CSHR24-004_SI-005</t>
-  </si>
-  <si>
-    <t>CSHR24-004_SI-006</t>
-  </si>
-  <si>
-    <t>CSHR24-004_SI-007</t>
-  </si>
-  <si>
-    <t>CSHR24-004_SI-008</t>
-  </si>
-  <si>
-    <t>CSHR24-004_SI-009</t>
-  </si>
-  <si>
-    <t>CSHR24-004_SI-010</t>
-  </si>
-  <si>
-    <t>CSHR24-004_SI-011</t>
-  </si>
-  <si>
-    <t>2 HOUR PILKADA</t>
-  </si>
-  <si>
-    <t>CSHR24-004_SI-012</t>
-  </si>
-  <si>
-    <t>ULIMIMITED PILKADA</t>
-  </si>
-  <si>
-    <t>CSHR24-004_SI-013</t>
-  </si>
-  <si>
-    <t>PAKET FIELD TRIP BILLY LILY PRESCHOOL</t>
-  </si>
-  <si>
-    <t>CSHR24-005_SI-003</t>
-  </si>
-  <si>
-    <t>CSHR24-005_SI-004</t>
-  </si>
-  <si>
-    <t>CSHR24-005_SI-005</t>
-  </si>
-  <si>
-    <t>CSHR24-005_SI-006</t>
-  </si>
-  <si>
-    <t>CSHR24-005_SI-007</t>
-  </si>
-  <si>
-    <t>CSHR24-005_SI-008</t>
-  </si>
-  <si>
-    <t>ADDITIONAL COMPANION edit</t>
-  </si>
-  <si>
-    <t>ADDITIONAL COMPANION edir</t>
-  </si>
-  <si>
-    <t>CSHR24-006_SI-003</t>
-  </si>
-  <si>
-    <t>CSHR24-006_SI-004</t>
-  </si>
-  <si>
-    <t>CSHR24-006_SI-005</t>
-  </si>
-  <si>
-    <t>CSHR24-006_SI-006</t>
-  </si>
-  <si>
-    <t>CSHR24-006_SI-007</t>
-  </si>
-  <si>
-    <t>CSHR24-006_SI-008</t>
-  </si>
-  <si>
-    <t>CSHR24-006_SI-009</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 HOUR NEW</t>
-  </si>
-  <si>
-    <t>CSHR24-006_SI-010</t>
-  </si>
-  <si>
-    <t>CSHR24-006_SI-011</t>
-  </si>
-  <si>
-    <t>CSHR24-006_SI-012</t>
-  </si>
-  <si>
-    <t>CSHR24-006_SI-013</t>
-  </si>
-  <si>
-    <t>CSHR24-007_SI-003</t>
-  </si>
-  <si>
-    <t>CSHR24-007_SI-004</t>
-  </si>
-  <si>
-    <t>CSHR24-007_SI-005</t>
-  </si>
-  <si>
-    <t>CSHR24-007_SI-006</t>
-  </si>
-  <si>
-    <t>CSHR24-007_SI-007</t>
-  </si>
-  <si>
-    <t>CSHR24-007_SI-008</t>
-  </si>
-  <si>
-    <t>CSHR24-007_SI-009</t>
-  </si>
-  <si>
-    <t>1 HOUR NEW</t>
-  </si>
-  <si>
-    <t>CSHR24-007_SI-010</t>
-  </si>
-  <si>
-    <t>CSHR24-007_SI-011</t>
-  </si>
-  <si>
-    <t>CSHR24-007_SI-012</t>
-  </si>
-  <si>
-    <t>CSHR24-007_SI-013</t>
-  </si>
-  <si>
-    <t>CSHR24-008_SI-003</t>
-  </si>
-  <si>
-    <t>CSHR24-008_SI-004</t>
-  </si>
-  <si>
-    <t>CSHR24-008_SI-005</t>
-  </si>
-  <si>
-    <t>CSHR24-008_SI-006</t>
-  </si>
-  <si>
-    <t>CSHR24-008_SI-007</t>
-  </si>
-  <si>
-    <t>CSHR24-008_SI-008</t>
-  </si>
-  <si>
-    <t>CSHR24-008_SI-009</t>
-  </si>
-  <si>
-    <t>1 HOUR WEEKDAY NEW</t>
-  </si>
-  <si>
-    <t>CSHR24-008_SI-010</t>
-  </si>
-  <si>
-    <t>CSHR24-008_SI-011</t>
-  </si>
-  <si>
-    <t>CSHR24-008_SI-012</t>
-  </si>
-  <si>
-    <t>CSHR24-008_SI-013</t>
-  </si>
-  <si>
-    <t>CSHR24-009_SI-003</t>
-  </si>
-  <si>
-    <t>CSHR24-009_SI-004</t>
-  </si>
-  <si>
-    <t>CSHR24-009_SI-005</t>
-  </si>
-  <si>
-    <t>CSHR24-009_SI-006</t>
-  </si>
-  <si>
-    <t>CSHR24-009_SI-007</t>
-  </si>
-  <si>
-    <t>CSHR24-009_SI-008</t>
-  </si>
-  <si>
-    <t>CSHR24-009_SI-009</t>
-  </si>
-  <si>
-    <t>CSHR24-009_SI-010</t>
-  </si>
-  <si>
-    <t>CSHR24-009_SI-011</t>
-  </si>
-  <si>
-    <t>CSHR24-009_SI-012</t>
-  </si>
-  <si>
-    <t>WEEKAND 1 HOUR + ACTIVITY</t>
-  </si>
-  <si>
-    <t>CSHR24-009_SI-013</t>
-  </si>
-  <si>
-    <t>CSHR25-010_SI-003</t>
-  </si>
-  <si>
-    <t>CSHR25-010_SI-004</t>
-  </si>
-  <si>
-    <t>CSHR25-010_SI-005</t>
-  </si>
-  <si>
-    <t>CSHR25-010_SI-006</t>
-  </si>
-  <si>
-    <t>CSHR25-010_SI-007</t>
-  </si>
-  <si>
-    <t>CSHR25-010_SI-008</t>
-  </si>
-  <si>
-    <t>CSHR25-010_SI-009</t>
-  </si>
-  <si>
-    <t>CSHR25-010_SI-010</t>
-  </si>
-  <si>
-    <t>WEEKDAY 2 HOUR+ ACTIVITY</t>
-  </si>
-  <si>
-    <t>CSHR25-010_SI-011</t>
-  </si>
-  <si>
-    <t>WEEKEND 1HOUR + ACTIVITY</t>
-  </si>
-  <si>
-    <t>CSHR25-010_SI-012</t>
-  </si>
-  <si>
-    <t>WEEKEND 2 HOUR + AKTIVITY</t>
-  </si>
-  <si>
-    <t>CSHR25-011_SI-003</t>
-  </si>
-  <si>
-    <t>CSHR25-011_SI-004</t>
-  </si>
-  <si>
-    <t>CSHR25-011_SI-005</t>
-  </si>
-  <si>
-    <t>CSHR25-011_SI-006</t>
-  </si>
-  <si>
-    <t>CSHR25-011_SI-007</t>
-  </si>
-  <si>
-    <t>CSHR25-011_SI-008</t>
-  </si>
-  <si>
-    <t>CSHR25-011_SI-009</t>
-  </si>
-  <si>
-    <t>CSHR25-011_SI-010</t>
-  </si>
-  <si>
-    <t>WEEKDAY 1 HOUR+ACTIVITY</t>
-  </si>
-  <si>
-    <t>CSHR25-011_SI-011</t>
-  </si>
-  <si>
-    <t>WEEKDAY 2 HOUR+ACTIVITY</t>
-  </si>
-  <si>
-    <t>CSHR25-011_SI-012</t>
-  </si>
-  <si>
-    <t>WEEKEND 1 HOUR+ACTIVITY</t>
-  </si>
-  <si>
-    <t>CSHR25-011_SI-013</t>
-  </si>
-  <si>
-    <t>WEEKEND 2 HOUR+ACTIVITY</t>
-  </si>
-  <si>
-    <t>CSHR25-011_SI-014</t>
-  </si>
-  <si>
-    <t>CSHR25-011_SI-015</t>
-  </si>
-  <si>
-    <t>CSHR25-012_SI-003</t>
-  </si>
-  <si>
-    <t>CSHR25-012_SI-004</t>
-  </si>
-  <si>
-    <t>CSHR25-012_SI-005</t>
-  </si>
-  <si>
-    <t>CSHR25-012_SI-006</t>
-  </si>
-  <si>
-    <t>CSHR25-012_SI-007</t>
-  </si>
-  <si>
-    <t>CSHR25-012_SI-008</t>
-  </si>
-  <si>
-    <t>CSHR25-012_SI-009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEEKDAY 1 HOUR + ACTIVITY </t>
-  </si>
-  <si>
-    <t>CSHR25-012_SI-010</t>
-  </si>
-  <si>
-    <t>CSHR25-012_SI-011</t>
-  </si>
-  <si>
-    <t>CSHR25-012_SI-012</t>
-  </si>
-  <si>
-    <t>CSHR25-013_SI-003</t>
-  </si>
-  <si>
-    <t>CSHR25-013_SI-004</t>
-  </si>
-  <si>
-    <t>CSHR25-013_SI-005</t>
-  </si>
-  <si>
-    <t>CSHR25-013_SI-006</t>
-  </si>
-  <si>
-    <t>CSHR25-013_SI-007</t>
-  </si>
-  <si>
-    <t>CSHR25-013_SI-008</t>
-  </si>
-  <si>
-    <t>CSHR25-013_SI-009</t>
-  </si>
-  <si>
-    <t>CSHR25-013_SI-010</t>
-  </si>
-  <si>
-    <t>CSHR25-013_SI-011</t>
-  </si>
-  <si>
-    <t>CSHR25-013_SI-012</t>
-  </si>
-  <si>
-    <t>CSHR25-013_SI-013</t>
-  </si>
-  <si>
-    <t>CSHR25-013_SI-014</t>
-  </si>
-  <si>
-    <t>CSHR25-014_SI-003</t>
-  </si>
-  <si>
-    <t>CSHR25-014_SI-004</t>
-  </si>
-  <si>
-    <t>CSHR25-014_SI-005</t>
-  </si>
-  <si>
-    <t>CSHR25-014_SI-006</t>
-  </si>
-  <si>
-    <t>CSHR25-014_SI-007</t>
-  </si>
-  <si>
-    <t>CSHR25-014_SI-008</t>
-  </si>
-  <si>
-    <t>CSHR25-014_SI-009</t>
-  </si>
-  <si>
-    <t>CSHR25-014_SI-010</t>
-  </si>
-  <si>
-    <t>CSHR25-014_SI-011</t>
-  </si>
-  <si>
-    <t>CSHR25-014_SI-012</t>
-  </si>
-  <si>
-    <t>CSHR25-014_SI-013</t>
-  </si>
-  <si>
-    <t>CSHR25-014_SI-014</t>
-  </si>
-  <si>
-    <t>WEEKEND 2 HOUR+ACTIVY</t>
-  </si>
-  <si>
-    <t>CSHR25-014_SI-015</t>
+    <t>JL-UI-001</t>
+  </si>
+  <si>
+    <t>JOYLAND</t>
+  </si>
+  <si>
+    <t>TOPUP</t>
+  </si>
+  <si>
+    <t>JL-UI-002</t>
+  </si>
+  <si>
+    <t>JL-UI-003</t>
+  </si>
+  <si>
+    <t>JL-UI-004</t>
+  </si>
+  <si>
+    <t>JL-UI-005</t>
+  </si>
+  <si>
+    <t>JL-UI-006</t>
+  </si>
+  <si>
+    <t>JL-UI-007</t>
+  </si>
+  <si>
+    <t>JL-UI-008</t>
+  </si>
+  <si>
+    <t>Mesin Capit</t>
+  </si>
+  <si>
+    <t>JL-UI-009</t>
+  </si>
+  <si>
+    <t>JL-UI-010</t>
+  </si>
+  <si>
+    <t>JL-UI-011</t>
+  </si>
+  <si>
+    <t>Cotton Candy</t>
+  </si>
+  <si>
+    <t>JL-UI-012</t>
+  </si>
+  <si>
+    <t>Popcorn</t>
+  </si>
+  <si>
+    <t>JL-UI-013</t>
+  </si>
+  <si>
+    <t>Nail Art</t>
+  </si>
+  <si>
+    <t>JL-UI-014</t>
+  </si>
+  <si>
+    <t>DIY Gelang</t>
+  </si>
+  <si>
+    <t>JL-UI-015</t>
+  </si>
+  <si>
+    <t>JL-UI-016</t>
+  </si>
+  <si>
+    <t>Paint By Number</t>
+  </si>
+  <si>
+    <t>JL-UI-017</t>
+  </si>
+  <si>
+    <t>Puzzle / 3D Foam</t>
+  </si>
+  <si>
+    <t>JL-UI-018</t>
+  </si>
+  <si>
+    <t>JL-UI-019</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>PERLENGKAPAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -2189,10 +1748,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3014,10 +2591,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61852417-E50B-4658-88F2-EBE48C37E9DC}">
-  <dimension ref="A1:I248"/>
+  <dimension ref="A1:I269"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="A251" sqref="A251:I269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3028,8 +2605,8 @@
     <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -10174,6 +9751,583 @@
       </c>
       <c r="I248" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A250" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="H250" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I250" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A251" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251" t="s">
+        <v>99</v>
+      </c>
+      <c r="H251" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="I251" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A252" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252" t="s">
+        <v>99</v>
+      </c>
+      <c r="H252" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="I252" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A253" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253" t="s">
+        <v>99</v>
+      </c>
+      <c r="H253" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="I253" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A254" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254" t="s">
+        <v>99</v>
+      </c>
+      <c r="H254" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="I254" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A255" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D255" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255" t="s">
+        <v>99</v>
+      </c>
+      <c r="H255" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="I255" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A256" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D256" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256" t="s">
+        <v>99</v>
+      </c>
+      <c r="H256" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="I256" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A257" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D257" s="8">
+        <v>291.66666666666669</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257" t="s">
+        <v>99</v>
+      </c>
+      <c r="H257" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="I257" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A258" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258" t="s">
+        <v>99</v>
+      </c>
+      <c r="H258" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="I258" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A259" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D259" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259" t="s">
+        <v>99</v>
+      </c>
+      <c r="H259" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I259" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A260" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D260" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E260" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260" t="s">
+        <v>99</v>
+      </c>
+      <c r="H260" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I260" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A261" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E261" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261" t="s">
+        <v>99</v>
+      </c>
+      <c r="H261" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I261" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A262" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262" t="s">
+        <v>99</v>
+      </c>
+      <c r="H262" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I262" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A263" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E263" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263" t="s">
+        <v>99</v>
+      </c>
+      <c r="H263" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I263" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A264" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="D264" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E264" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264" t="s">
+        <v>99</v>
+      </c>
+      <c r="H264" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I264" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A265" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E265" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265" t="s">
+        <v>99</v>
+      </c>
+      <c r="H265" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I265" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A266" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="D266" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+      <c r="G266" t="s">
+        <v>99</v>
+      </c>
+      <c r="H266" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I266" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A267" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D267" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E267" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267" t="s">
+        <v>99</v>
+      </c>
+      <c r="H267" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I267" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A268" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D268" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E268" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268" t="s">
+        <v>99</v>
+      </c>
+      <c r="H268" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I268" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A269" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="B269" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D269" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E269" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269" t="s">
+        <v>99</v>
+      </c>
+      <c r="H269" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I269" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10183,10 +10337,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691D1286-0992-4735-A301-ACE5EAF14695}">
-  <dimension ref="A1:J189"/>
+  <dimension ref="A1:J184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10683,68 +10837,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>519</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>520</v>
-      </c>
-      <c r="D16" t="s">
-        <v>521</v>
-      </c>
-      <c r="E16" t="s">
-        <v>520</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" t="s">
-        <v>507</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>522</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>523</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>524</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>523</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
       </c>
       <c r="G17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H17" t="s">
-        <v>478</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="I17" t="s">
+        <v>473</v>
+      </c>
+      <c r="J17" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -10752,16 +10874,16 @@
         <v>525</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>526</v>
       </c>
       <c r="C18" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="D18" t="s">
-        <v>499</v>
+        <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -10781,19 +10903,19 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>526</v>
       </c>
       <c r="C19" t="s">
-        <v>528</v>
+        <v>498</v>
       </c>
       <c r="D19" t="s">
-        <v>154</v>
+        <v>499</v>
       </c>
       <c r="E19" t="s">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -10816,16 +10938,16 @@
         <v>529</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>526</v>
       </c>
       <c r="C20" t="s">
-        <v>530</v>
+        <v>502</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
+        <v>503</v>
       </c>
       <c r="E20" t="s">
-        <v>530</v>
+        <v>504</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -10834,10 +10956,10 @@
         <v>99</v>
       </c>
       <c r="H20" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -10845,19 +10967,19 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>526</v>
       </c>
       <c r="C21" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="D21" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E21" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -10869,7 +10991,7 @@
         <v>487</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -10877,19 +10999,19 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>228</v>
+        <v>531</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>526</v>
       </c>
       <c r="C22" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>513</v>
       </c>
       <c r="E22" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -10898,10 +11020,10 @@
         <v>99</v>
       </c>
       <c r="H22" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -10909,19 +11031,19 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>230</v>
+        <v>532</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>526</v>
       </c>
       <c r="C23" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="D23" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="E23" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -10930,10 +11052,10 @@
         <v>99</v>
       </c>
       <c r="H23" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -10944,16 +11066,16 @@
         <v>533</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>526</v>
       </c>
       <c r="C24" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="D24" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E24" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -10965,7 +11087,7 @@
         <v>478</v>
       </c>
       <c r="I24">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -10976,16 +11098,16 @@
         <v>534</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>526</v>
       </c>
       <c r="C25" t="s">
-        <v>506</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
+        <v>521</v>
+      </c>
+      <c r="D25" t="s">
+        <v>154</v>
       </c>
       <c r="E25" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -10994,10 +11116,10 @@
         <v>99</v>
       </c>
       <c r="H25" t="s">
-        <v>507</v>
+        <v>478</v>
       </c>
       <c r="I25">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -11005,19 +11127,19 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>526</v>
       </c>
       <c r="C26" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="D26" t="s">
-        <v>499</v>
+        <v>154</v>
       </c>
       <c r="E26" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -11037,19 +11159,19 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>526</v>
       </c>
       <c r="C27" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="D27" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="E27" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -11069,19 +11191,19 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>526</v>
       </c>
       <c r="C28" t="s">
-        <v>516</v>
-      </c>
-      <c r="D28" t="s">
-        <v>517</v>
+        <v>506</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -11090,7 +11212,7 @@
         <v>99</v>
       </c>
       <c r="H28" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="I28">
         <v>15</v>
@@ -11101,19 +11223,19 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>526</v>
       </c>
       <c r="C29" t="s">
+        <v>519</v>
+      </c>
+      <c r="D29" t="s">
         <v>520</v>
       </c>
-      <c r="D29" t="s">
-        <v>521</v>
-      </c>
       <c r="E29" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -11131,5116 +11253,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>539</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" t="s">
-        <v>540</v>
-      </c>
-      <c r="D30" t="s">
-        <v>524</v>
-      </c>
-      <c r="E30" t="s">
-        <v>540</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
-        <v>99</v>
-      </c>
-      <c r="H30" t="s">
-        <v>478</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>541</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s">
-        <v>542</v>
-      </c>
-      <c r="D31" t="s">
-        <v>499</v>
-      </c>
-      <c r="E31" t="s">
-        <v>542</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
-        <v>99</v>
-      </c>
-      <c r="H31" t="s">
-        <v>478</v>
-      </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>543</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" t="s">
-        <v>544</v>
-      </c>
-      <c r="D32" t="s">
-        <v>545</v>
-      </c>
-      <c r="E32" t="s">
-        <v>544</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>99</v>
-      </c>
-      <c r="H32" t="s">
-        <v>487</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>546</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" t="s">
-        <v>547</v>
-      </c>
-      <c r="D33" t="s">
-        <v>548</v>
-      </c>
-      <c r="E33" t="s">
-        <v>547</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33" t="s">
-        <v>99</v>
-      </c>
-      <c r="H33" t="s">
-        <v>487</v>
-      </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>549</v>
-      </c>
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" t="s">
-        <v>550</v>
-      </c>
-      <c r="D34" t="s">
-        <v>551</v>
-      </c>
-      <c r="E34" t="s">
-        <v>550</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
-        <v>99</v>
-      </c>
-      <c r="H34" t="s">
-        <v>487</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>552</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" t="s">
-        <v>553</v>
-      </c>
-      <c r="D35" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" t="s">
-        <v>553</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
-        <v>99</v>
-      </c>
-      <c r="H35" t="s">
-        <v>478</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>554</v>
-      </c>
-      <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" t="s">
-        <v>265</v>
-      </c>
-      <c r="D36" t="s">
-        <v>165</v>
-      </c>
-      <c r="E36" t="s">
-        <v>265</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
-        <v>99</v>
-      </c>
-      <c r="H36" t="s">
-        <v>487</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>555</v>
-      </c>
-      <c r="B37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" t="s">
-        <v>556</v>
-      </c>
-      <c r="D37" t="s">
-        <v>499</v>
-      </c>
-      <c r="E37" t="s">
-        <v>556</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37" t="s">
-        <v>99</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>557</v>
-      </c>
-      <c r="B38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" t="s">
-        <v>528</v>
-      </c>
-      <c r="D38" t="s">
-        <v>154</v>
-      </c>
-      <c r="E38" t="s">
-        <v>528</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" t="s">
-        <v>99</v>
-      </c>
-      <c r="I38">
-        <v>2</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>558</v>
-      </c>
-      <c r="B39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" t="s">
-        <v>559</v>
-      </c>
-      <c r="D39" t="s">
-        <v>154</v>
-      </c>
-      <c r="E39" t="s">
-        <v>559</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39" t="s">
-        <v>99</v>
-      </c>
-      <c r="H39" t="s">
-        <v>487</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>560</v>
-      </c>
-      <c r="B40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" t="s">
-        <v>561</v>
-      </c>
-      <c r="D40" t="s">
-        <v>503</v>
-      </c>
-      <c r="E40" t="s">
-        <v>561</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
-        <v>99</v>
-      </c>
-      <c r="H40" t="s">
-        <v>487</v>
-      </c>
-      <c r="I40">
-        <v>2</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>242</v>
-      </c>
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" t="s">
-        <v>496</v>
-      </c>
-      <c r="D41" t="s">
-        <v>130</v>
-      </c>
-      <c r="E41" t="s">
-        <v>497</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41" t="s">
-        <v>99</v>
-      </c>
-      <c r="H41" t="s">
-        <v>478</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>243</v>
-      </c>
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" t="s">
-        <v>498</v>
-      </c>
-      <c r="D42" t="s">
-        <v>499</v>
-      </c>
-      <c r="E42" t="s">
-        <v>500</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42" t="s">
-        <v>99</v>
-      </c>
-      <c r="H42" t="s">
-        <v>478</v>
-      </c>
-      <c r="I42">
-        <v>2</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>562</v>
-      </c>
-      <c r="B43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" t="s">
-        <v>502</v>
-      </c>
-      <c r="D43" t="s">
-        <v>503</v>
-      </c>
-      <c r="E43" t="s">
-        <v>504</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
-        <v>99</v>
-      </c>
-      <c r="H43" t="s">
-        <v>478</v>
-      </c>
-      <c r="I43">
-        <v>15</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>563</v>
-      </c>
-      <c r="B44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" t="s">
-        <v>506</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
-        <v>506</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44" t="s">
-        <v>99</v>
-      </c>
-      <c r="H44" t="s">
-        <v>507</v>
-      </c>
-      <c r="I44">
-        <v>15</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>564</v>
-      </c>
-      <c r="B45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" t="s">
-        <v>509</v>
-      </c>
-      <c r="D45" t="s">
-        <v>499</v>
-      </c>
-      <c r="E45" t="s">
-        <v>510</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45" t="s">
-        <v>99</v>
-      </c>
-      <c r="H45" t="s">
-        <v>487</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>565</v>
-      </c>
-      <c r="B46" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" t="s">
-        <v>512</v>
-      </c>
-      <c r="D46" t="s">
-        <v>513</v>
-      </c>
-      <c r="E46" t="s">
-        <v>514</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46" t="s">
-        <v>99</v>
-      </c>
-      <c r="H46" t="s">
-        <v>487</v>
-      </c>
-      <c r="I46">
-        <v>2</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>566</v>
-      </c>
-      <c r="B47" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" t="s">
-        <v>516</v>
-      </c>
-      <c r="D47" t="s">
-        <v>517</v>
-      </c>
-      <c r="E47" t="s">
-        <v>518</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47" t="s">
-        <v>99</v>
-      </c>
-      <c r="H47" t="s">
-        <v>487</v>
-      </c>
-      <c r="I47">
-        <v>15</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>567</v>
-      </c>
-      <c r="B48" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" t="s">
-        <v>520</v>
-      </c>
-      <c r="D48" t="s">
-        <v>521</v>
-      </c>
-      <c r="E48" t="s">
-        <v>520</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48" t="s">
-        <v>99</v>
-      </c>
-      <c r="H48" t="s">
-        <v>507</v>
-      </c>
-      <c r="I48">
-        <v>15</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>266</v>
-      </c>
-      <c r="B49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" t="s">
-        <v>496</v>
-      </c>
-      <c r="D49" t="s">
-        <v>130</v>
-      </c>
-      <c r="E49" t="s">
-        <v>497</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49" t="s">
-        <v>99</v>
-      </c>
-      <c r="H49" t="s">
-        <v>478</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>267</v>
-      </c>
-      <c r="B50" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" t="s">
-        <v>498</v>
-      </c>
-      <c r="D50" t="s">
-        <v>499</v>
-      </c>
-      <c r="E50" t="s">
-        <v>500</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50" t="s">
-        <v>99</v>
-      </c>
-      <c r="H50" t="s">
-        <v>478</v>
-      </c>
-      <c r="I50">
-        <v>2</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>568</v>
-      </c>
-      <c r="B51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" t="s">
-        <v>502</v>
-      </c>
-      <c r="D51" t="s">
-        <v>503</v>
-      </c>
-      <c r="E51" t="s">
-        <v>504</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51" t="s">
-        <v>99</v>
-      </c>
-      <c r="H51" t="s">
-        <v>478</v>
-      </c>
-      <c r="I51">
-        <v>15</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>569</v>
-      </c>
-      <c r="B52" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" t="s">
-        <v>506</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0</v>
-      </c>
-      <c r="E52" t="s">
-        <v>506</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52" t="s">
-        <v>99</v>
-      </c>
-      <c r="H52" t="s">
-        <v>507</v>
-      </c>
-      <c r="I52">
-        <v>15</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>570</v>
-      </c>
-      <c r="B53" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" t="s">
-        <v>509</v>
-      </c>
-      <c r="D53" t="s">
-        <v>499</v>
-      </c>
-      <c r="E53" t="s">
-        <v>510</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53" t="s">
-        <v>99</v>
-      </c>
-      <c r="H53" t="s">
-        <v>487</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>571</v>
-      </c>
-      <c r="B54" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" t="s">
-        <v>512</v>
-      </c>
-      <c r="D54" t="s">
-        <v>513</v>
-      </c>
-      <c r="E54" t="s">
-        <v>514</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54" t="s">
-        <v>99</v>
-      </c>
-      <c r="H54" t="s">
-        <v>487</v>
-      </c>
-      <c r="I54">
-        <v>2</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>572</v>
-      </c>
-      <c r="B55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" t="s">
-        <v>516</v>
-      </c>
-      <c r="D55" t="s">
-        <v>517</v>
-      </c>
-      <c r="E55" t="s">
-        <v>518</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55" t="s">
-        <v>99</v>
-      </c>
-      <c r="H55" t="s">
-        <v>487</v>
-      </c>
-      <c r="I55">
-        <v>15</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>573</v>
-      </c>
-      <c r="B56" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" t="s">
-        <v>520</v>
-      </c>
-      <c r="D56" t="s">
-        <v>521</v>
-      </c>
-      <c r="E56" t="s">
-        <v>520</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56" t="s">
-        <v>99</v>
-      </c>
-      <c r="H56" t="s">
-        <v>507</v>
-      </c>
-      <c r="I56">
-        <v>15</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>574</v>
-      </c>
-      <c r="B57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" t="s">
-        <v>523</v>
-      </c>
-      <c r="D57" t="s">
-        <v>524</v>
-      </c>
-      <c r="E57" t="s">
-        <v>523</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57" t="s">
-        <v>99</v>
-      </c>
-      <c r="H57" t="s">
-        <v>478</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>575</v>
-      </c>
-      <c r="B58" t="s">
-        <v>44</v>
-      </c>
-      <c r="C58" t="s">
-        <v>544</v>
-      </c>
-      <c r="D58" t="s">
-        <v>545</v>
-      </c>
-      <c r="E58" t="s">
-        <v>544</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58" t="s">
-        <v>99</v>
-      </c>
-      <c r="H58" t="s">
-        <v>487</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>576</v>
-      </c>
-      <c r="B59" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" t="s">
-        <v>577</v>
-      </c>
-      <c r="D59" t="s">
-        <v>548</v>
-      </c>
-      <c r="E59" t="s">
-        <v>577</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59" t="s">
-        <v>99</v>
-      </c>
-      <c r="H59" t="s">
-        <v>487</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>578</v>
-      </c>
-      <c r="B60" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" t="s">
-        <v>579</v>
-      </c>
-      <c r="D60" t="s">
-        <v>551</v>
-      </c>
-      <c r="E60" t="s">
-        <v>550</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60" t="s">
-        <v>99</v>
-      </c>
-      <c r="H60" t="s">
-        <v>487</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>580</v>
-      </c>
-      <c r="B61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" t="s">
-        <v>581</v>
-      </c>
-      <c r="D61" t="s">
-        <v>476</v>
-      </c>
-      <c r="E61" t="s">
-        <v>581</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61" t="s">
-        <v>99</v>
-      </c>
-      <c r="H61" t="s">
-        <v>478</v>
-      </c>
-      <c r="I61">
-        <v>2</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>270</v>
-      </c>
-      <c r="B62" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" t="s">
-        <v>496</v>
-      </c>
-      <c r="D62" t="s">
-        <v>130</v>
-      </c>
-      <c r="E62" t="s">
-        <v>497</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62" t="s">
-        <v>99</v>
-      </c>
-      <c r="H62" t="s">
-        <v>478</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>271</v>
-      </c>
-      <c r="B63" t="s">
-        <v>48</v>
-      </c>
-      <c r="C63" t="s">
-        <v>498</v>
-      </c>
-      <c r="D63" t="s">
-        <v>499</v>
-      </c>
-      <c r="E63" t="s">
-        <v>500</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63" t="s">
-        <v>99</v>
-      </c>
-      <c r="H63" t="s">
-        <v>478</v>
-      </c>
-      <c r="I63">
-        <v>2</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>582</v>
-      </c>
-      <c r="B64" t="s">
-        <v>48</v>
-      </c>
-      <c r="C64" t="s">
-        <v>502</v>
-      </c>
-      <c r="D64" t="s">
-        <v>503</v>
-      </c>
-      <c r="E64" t="s">
-        <v>504</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64" t="s">
-        <v>99</v>
-      </c>
-      <c r="H64" t="s">
-        <v>478</v>
-      </c>
-      <c r="I64">
-        <v>15</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>583</v>
-      </c>
-      <c r="B65" t="s">
-        <v>48</v>
-      </c>
-      <c r="C65" t="s">
-        <v>506</v>
-      </c>
-      <c r="D65" s="1">
-        <v>0</v>
-      </c>
-      <c r="E65" t="s">
-        <v>506</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65" t="s">
-        <v>99</v>
-      </c>
-      <c r="H65" t="s">
-        <v>507</v>
-      </c>
-      <c r="I65">
-        <v>15</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>584</v>
-      </c>
-      <c r="B66" t="s">
-        <v>48</v>
-      </c>
-      <c r="C66" t="s">
-        <v>509</v>
-      </c>
-      <c r="D66" t="s">
-        <v>499</v>
-      </c>
-      <c r="E66" t="s">
-        <v>510</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66" t="s">
-        <v>99</v>
-      </c>
-      <c r="H66" t="s">
-        <v>487</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>585</v>
-      </c>
-      <c r="B67" t="s">
-        <v>48</v>
-      </c>
-      <c r="C67" t="s">
-        <v>512</v>
-      </c>
-      <c r="D67" t="s">
-        <v>513</v>
-      </c>
-      <c r="E67" t="s">
-        <v>514</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67" t="s">
-        <v>99</v>
-      </c>
-      <c r="H67" t="s">
-        <v>487</v>
-      </c>
-      <c r="I67">
-        <v>2</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>586</v>
-      </c>
-      <c r="B68" t="s">
-        <v>48</v>
-      </c>
-      <c r="C68" t="s">
-        <v>516</v>
-      </c>
-      <c r="D68" t="s">
-        <v>517</v>
-      </c>
-      <c r="E68" t="s">
-        <v>518</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68" t="s">
-        <v>99</v>
-      </c>
-      <c r="H68" t="s">
-        <v>487</v>
-      </c>
-      <c r="I68">
-        <v>15</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>587</v>
-      </c>
-      <c r="B69" t="s">
-        <v>48</v>
-      </c>
-      <c r="C69" t="s">
-        <v>588</v>
-      </c>
-      <c r="D69" t="s">
-        <v>521</v>
-      </c>
-      <c r="E69" t="s">
-        <v>589</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69" t="s">
-        <v>99</v>
-      </c>
-      <c r="H69" t="s">
-        <v>507</v>
-      </c>
-      <c r="I69">
-        <v>15</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>313</v>
-      </c>
-      <c r="B70" t="s">
-        <v>52</v>
-      </c>
-      <c r="C70" t="s">
-        <v>496</v>
-      </c>
-      <c r="D70" t="s">
-        <v>130</v>
-      </c>
-      <c r="E70" t="s">
-        <v>497</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70" t="s">
-        <v>99</v>
-      </c>
-      <c r="H70" t="s">
-        <v>478</v>
-      </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>314</v>
-      </c>
-      <c r="B71" t="s">
-        <v>52</v>
-      </c>
-      <c r="C71" t="s">
-        <v>498</v>
-      </c>
-      <c r="D71" t="s">
-        <v>499</v>
-      </c>
-      <c r="E71" t="s">
-        <v>500</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71" t="s">
-        <v>99</v>
-      </c>
-      <c r="H71" t="s">
-        <v>478</v>
-      </c>
-      <c r="I71">
-        <v>2</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>590</v>
-      </c>
-      <c r="B72" t="s">
-        <v>52</v>
-      </c>
-      <c r="C72" t="s">
-        <v>502</v>
-      </c>
-      <c r="D72" t="s">
-        <v>503</v>
-      </c>
-      <c r="E72" t="s">
-        <v>504</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72" t="s">
-        <v>99</v>
-      </c>
-      <c r="H72" t="s">
-        <v>478</v>
-      </c>
-      <c r="I72">
-        <v>15</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>591</v>
-      </c>
-      <c r="B73" t="s">
-        <v>52</v>
-      </c>
-      <c r="C73" t="s">
-        <v>506</v>
-      </c>
-      <c r="D73" s="1">
-        <v>0</v>
-      </c>
-      <c r="E73" t="s">
-        <v>506</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73" t="s">
-        <v>99</v>
-      </c>
-      <c r="H73" t="s">
-        <v>507</v>
-      </c>
-      <c r="I73">
-        <v>15</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>592</v>
-      </c>
-      <c r="B74" t="s">
-        <v>52</v>
-      </c>
-      <c r="C74" t="s">
-        <v>509</v>
-      </c>
-      <c r="D74" t="s">
-        <v>499</v>
-      </c>
-      <c r="E74" t="s">
-        <v>510</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74" t="s">
-        <v>99</v>
-      </c>
-      <c r="H74" t="s">
-        <v>487</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>593</v>
-      </c>
-      <c r="B75" t="s">
-        <v>52</v>
-      </c>
-      <c r="C75" t="s">
-        <v>512</v>
-      </c>
-      <c r="D75" t="s">
-        <v>513</v>
-      </c>
-      <c r="E75" t="s">
-        <v>514</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75" t="s">
-        <v>99</v>
-      </c>
-      <c r="H75" t="s">
-        <v>487</v>
-      </c>
-      <c r="I75">
-        <v>2</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>594</v>
-      </c>
-      <c r="B76" t="s">
-        <v>52</v>
-      </c>
-      <c r="C76" t="s">
-        <v>516</v>
-      </c>
-      <c r="D76" t="s">
-        <v>517</v>
-      </c>
-      <c r="E76" t="s">
-        <v>518</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76" t="s">
-        <v>99</v>
-      </c>
-      <c r="H76" t="s">
-        <v>487</v>
-      </c>
-      <c r="I76">
-        <v>15</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>595</v>
-      </c>
-      <c r="B77" t="s">
-        <v>52</v>
-      </c>
-      <c r="C77" t="s">
-        <v>520</v>
-      </c>
-      <c r="D77" t="s">
-        <v>521</v>
-      </c>
-      <c r="E77" t="s">
-        <v>520</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77" t="s">
-        <v>99</v>
-      </c>
-      <c r="H77" t="s">
-        <v>507</v>
-      </c>
-      <c r="I77">
-        <v>15</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>596</v>
-      </c>
-      <c r="B78" t="s">
-        <v>52</v>
-      </c>
-      <c r="C78" t="s">
-        <v>523</v>
-      </c>
-      <c r="D78" t="s">
-        <v>524</v>
-      </c>
-      <c r="E78" t="s">
-        <v>597</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78" t="s">
-        <v>99</v>
-      </c>
-      <c r="H78" t="s">
-        <v>478</v>
-      </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>598</v>
-      </c>
-      <c r="B79" t="s">
-        <v>52</v>
-      </c>
-      <c r="C79" t="s">
-        <v>556</v>
-      </c>
-      <c r="D79" t="s">
-        <v>499</v>
-      </c>
-      <c r="E79" t="s">
-        <v>556</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79" t="s">
-        <v>99</v>
-      </c>
-      <c r="H79" t="s">
-        <v>478</v>
-      </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>599</v>
-      </c>
-      <c r="B80" t="s">
-        <v>52</v>
-      </c>
-      <c r="C80" t="s">
-        <v>528</v>
-      </c>
-      <c r="D80" t="s">
-        <v>154</v>
-      </c>
-      <c r="E80" t="s">
-        <v>528</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80" t="s">
-        <v>99</v>
-      </c>
-      <c r="H80" t="s">
-        <v>478</v>
-      </c>
-      <c r="I80">
-        <v>2</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>600</v>
-      </c>
-      <c r="B81" t="s">
-        <v>52</v>
-      </c>
-      <c r="C81" t="s">
-        <v>559</v>
-      </c>
-      <c r="D81" t="s">
-        <v>154</v>
-      </c>
-      <c r="E81" t="s">
-        <v>559</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81" t="s">
-        <v>99</v>
-      </c>
-      <c r="H81" t="s">
-        <v>487</v>
-      </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>601</v>
-      </c>
-      <c r="B82" t="s">
-        <v>52</v>
-      </c>
-      <c r="C82" t="s">
-        <v>561</v>
-      </c>
-      <c r="D82" t="s">
-        <v>503</v>
-      </c>
-      <c r="E82" t="s">
-        <v>561</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82" t="s">
-        <v>99</v>
-      </c>
-      <c r="H82" t="s">
-        <v>487</v>
-      </c>
-      <c r="I82">
-        <v>2</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>357</v>
-      </c>
-      <c r="B83" t="s">
-        <v>56</v>
-      </c>
-      <c r="C83" t="s">
-        <v>496</v>
-      </c>
-      <c r="D83" t="s">
-        <v>130</v>
-      </c>
-      <c r="E83" t="s">
-        <v>497</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83" t="s">
-        <v>99</v>
-      </c>
-      <c r="H83" t="s">
-        <v>478</v>
-      </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>358</v>
-      </c>
-      <c r="B84" t="s">
-        <v>56</v>
-      </c>
-      <c r="C84" t="s">
-        <v>498</v>
-      </c>
-      <c r="D84" t="s">
-        <v>499</v>
-      </c>
-      <c r="E84" t="s">
-        <v>500</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84" t="s">
-        <v>99</v>
-      </c>
-      <c r="H84" t="s">
-        <v>478</v>
-      </c>
-      <c r="I84">
-        <v>2</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>602</v>
-      </c>
-      <c r="B85" t="s">
-        <v>56</v>
-      </c>
-      <c r="C85" t="s">
-        <v>502</v>
-      </c>
-      <c r="D85" t="s">
-        <v>503</v>
-      </c>
-      <c r="E85" t="s">
-        <v>504</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85" t="s">
-        <v>99</v>
-      </c>
-      <c r="H85" t="s">
-        <v>478</v>
-      </c>
-      <c r="I85">
-        <v>15</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>603</v>
-      </c>
-      <c r="B86" t="s">
-        <v>56</v>
-      </c>
-      <c r="C86" t="s">
-        <v>506</v>
-      </c>
-      <c r="D86" s="1">
-        <v>0</v>
-      </c>
-      <c r="E86" t="s">
-        <v>506</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86" t="s">
-        <v>99</v>
-      </c>
-      <c r="H86" t="s">
-        <v>507</v>
-      </c>
-      <c r="I86">
-        <v>15</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>604</v>
-      </c>
-      <c r="B87" t="s">
-        <v>56</v>
-      </c>
-      <c r="C87" t="s">
-        <v>509</v>
-      </c>
-      <c r="D87" t="s">
-        <v>499</v>
-      </c>
-      <c r="E87" t="s">
-        <v>510</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87" t="s">
-        <v>99</v>
-      </c>
-      <c r="H87" t="s">
-        <v>487</v>
-      </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>605</v>
-      </c>
-      <c r="B88" t="s">
-        <v>56</v>
-      </c>
-      <c r="C88" t="s">
-        <v>512</v>
-      </c>
-      <c r="D88" t="s">
-        <v>513</v>
-      </c>
-      <c r="E88" t="s">
-        <v>514</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88" t="s">
-        <v>99</v>
-      </c>
-      <c r="H88" t="s">
-        <v>487</v>
-      </c>
-      <c r="I88">
-        <v>2</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>606</v>
-      </c>
-      <c r="B89" t="s">
-        <v>56</v>
-      </c>
-      <c r="C89" t="s">
-        <v>516</v>
-      </c>
-      <c r="D89" t="s">
-        <v>517</v>
-      </c>
-      <c r="E89" t="s">
-        <v>518</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89" t="s">
-        <v>99</v>
-      </c>
-      <c r="H89" t="s">
-        <v>487</v>
-      </c>
-      <c r="I89">
-        <v>15</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>607</v>
-      </c>
-      <c r="B90" t="s">
-        <v>56</v>
-      </c>
-      <c r="C90" t="s">
-        <v>520</v>
-      </c>
-      <c r="D90" t="s">
-        <v>521</v>
-      </c>
-      <c r="E90" t="s">
-        <v>520</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90" t="s">
-        <v>99</v>
-      </c>
-      <c r="H90" t="s">
-        <v>507</v>
-      </c>
-      <c r="I90">
-        <v>15</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>608</v>
-      </c>
-      <c r="B91" t="s">
-        <v>56</v>
-      </c>
-      <c r="C91" t="s">
-        <v>523</v>
-      </c>
-      <c r="D91" t="s">
-        <v>524</v>
-      </c>
-      <c r="E91" t="s">
-        <v>609</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91" t="s">
-        <v>99</v>
-      </c>
-      <c r="H91" t="s">
-        <v>478</v>
-      </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>610</v>
-      </c>
-      <c r="B92" t="s">
-        <v>56</v>
-      </c>
-      <c r="C92" t="s">
-        <v>556</v>
-      </c>
-      <c r="D92" t="s">
-        <v>499</v>
-      </c>
-      <c r="E92" t="s">
-        <v>556</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92" t="s">
-        <v>99</v>
-      </c>
-      <c r="H92" t="s">
-        <v>478</v>
-      </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>611</v>
-      </c>
-      <c r="B93" t="s">
-        <v>56</v>
-      </c>
-      <c r="C93" t="s">
-        <v>528</v>
-      </c>
-      <c r="D93" t="s">
-        <v>154</v>
-      </c>
-      <c r="E93" t="s">
-        <v>528</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93" t="s">
-        <v>99</v>
-      </c>
-      <c r="H93" t="s">
-        <v>478</v>
-      </c>
-      <c r="I93">
-        <v>2</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>612</v>
-      </c>
-      <c r="B94" t="s">
-        <v>56</v>
-      </c>
-      <c r="C94" t="s">
-        <v>559</v>
-      </c>
-      <c r="D94" t="s">
-        <v>154</v>
-      </c>
-      <c r="E94" t="s">
-        <v>559</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94" t="s">
-        <v>99</v>
-      </c>
-      <c r="H94" t="s">
-        <v>487</v>
-      </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>613</v>
-      </c>
-      <c r="B95" t="s">
-        <v>56</v>
-      </c>
-      <c r="C95" t="s">
-        <v>561</v>
-      </c>
-      <c r="D95" t="s">
-        <v>503</v>
-      </c>
-      <c r="E95" t="s">
-        <v>561</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95" t="s">
-        <v>99</v>
-      </c>
-      <c r="H95" t="s">
-        <v>487</v>
-      </c>
-      <c r="I95">
-        <v>2</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>384</v>
-      </c>
-      <c r="B96" t="s">
-        <v>60</v>
-      </c>
-      <c r="C96" t="s">
-        <v>496</v>
-      </c>
-      <c r="D96" t="s">
-        <v>130</v>
-      </c>
-      <c r="E96" t="s">
-        <v>497</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96" t="s">
-        <v>99</v>
-      </c>
-      <c r="H96" t="s">
-        <v>478</v>
-      </c>
-      <c r="I96">
-        <v>1</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>385</v>
-      </c>
-      <c r="B97" t="s">
-        <v>60</v>
-      </c>
-      <c r="C97" t="s">
-        <v>498</v>
-      </c>
-      <c r="D97" t="s">
-        <v>499</v>
-      </c>
-      <c r="E97" t="s">
-        <v>500</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97" t="s">
-        <v>99</v>
-      </c>
-      <c r="H97" t="s">
-        <v>478</v>
-      </c>
-      <c r="I97">
-        <v>2</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>614</v>
-      </c>
-      <c r="B98" t="s">
-        <v>60</v>
-      </c>
-      <c r="C98" t="s">
-        <v>502</v>
-      </c>
-      <c r="D98" t="s">
-        <v>503</v>
-      </c>
-      <c r="E98" t="s">
-        <v>504</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98" t="s">
-        <v>99</v>
-      </c>
-      <c r="H98" t="s">
-        <v>478</v>
-      </c>
-      <c r="I98">
-        <v>15</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>615</v>
-      </c>
-      <c r="B99" t="s">
-        <v>60</v>
-      </c>
-      <c r="C99" t="s">
-        <v>506</v>
-      </c>
-      <c r="D99" s="1">
-        <v>0</v>
-      </c>
-      <c r="E99" t="s">
-        <v>506</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99" t="s">
-        <v>99</v>
-      </c>
-      <c r="H99" t="s">
-        <v>507</v>
-      </c>
-      <c r="I99">
-        <v>15</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>616</v>
-      </c>
-      <c r="B100" t="s">
-        <v>60</v>
-      </c>
-      <c r="C100" t="s">
-        <v>509</v>
-      </c>
-      <c r="D100" t="s">
-        <v>499</v>
-      </c>
-      <c r="E100" t="s">
-        <v>510</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100" t="s">
-        <v>99</v>
-      </c>
-      <c r="H100" t="s">
-        <v>487</v>
-      </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>617</v>
-      </c>
-      <c r="B101" t="s">
-        <v>60</v>
-      </c>
-      <c r="C101" t="s">
-        <v>512</v>
-      </c>
-      <c r="D101" t="s">
-        <v>513</v>
-      </c>
-      <c r="E101" t="s">
-        <v>514</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101" t="s">
-        <v>99</v>
-      </c>
-      <c r="H101" t="s">
-        <v>487</v>
-      </c>
-      <c r="I101">
-        <v>2</v>
-      </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>618</v>
-      </c>
-      <c r="B102" t="s">
-        <v>60</v>
-      </c>
-      <c r="C102" t="s">
-        <v>516</v>
-      </c>
-      <c r="D102" t="s">
-        <v>517</v>
-      </c>
-      <c r="E102" t="s">
-        <v>518</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102" t="s">
-        <v>99</v>
-      </c>
-      <c r="H102" t="s">
-        <v>487</v>
-      </c>
-      <c r="I102">
-        <v>15</v>
-      </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>619</v>
-      </c>
-      <c r="B103" t="s">
-        <v>60</v>
-      </c>
-      <c r="C103" t="s">
-        <v>520</v>
-      </c>
-      <c r="D103" t="s">
-        <v>521</v>
-      </c>
-      <c r="E103" t="s">
-        <v>520</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103" t="s">
-        <v>99</v>
-      </c>
-      <c r="H103" t="s">
-        <v>507</v>
-      </c>
-      <c r="I103">
-        <v>15</v>
-      </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>620</v>
-      </c>
-      <c r="B104" t="s">
-        <v>60</v>
-      </c>
-      <c r="C104" t="s">
-        <v>621</v>
-      </c>
-      <c r="D104" t="s">
-        <v>524</v>
-      </c>
-      <c r="E104" t="s">
-        <v>621</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104" t="s">
-        <v>99</v>
-      </c>
-      <c r="H104" t="s">
-        <v>478</v>
-      </c>
-      <c r="I104">
-        <v>1</v>
-      </c>
-      <c r="J104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>622</v>
-      </c>
-      <c r="B105" t="s">
-        <v>60</v>
-      </c>
-      <c r="C105" t="s">
-        <v>556</v>
-      </c>
-      <c r="D105" t="s">
-        <v>499</v>
-      </c>
-      <c r="E105" t="s">
-        <v>556</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105" t="s">
-        <v>99</v>
-      </c>
-      <c r="H105" t="s">
-        <v>478</v>
-      </c>
-      <c r="I105">
-        <v>1</v>
-      </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>623</v>
-      </c>
-      <c r="B106" t="s">
-        <v>60</v>
-      </c>
-      <c r="C106" t="s">
-        <v>528</v>
-      </c>
-      <c r="D106" t="s">
-        <v>154</v>
-      </c>
-      <c r="E106" t="s">
-        <v>528</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106" t="s">
-        <v>99</v>
-      </c>
-      <c r="H106" t="s">
-        <v>478</v>
-      </c>
-      <c r="I106">
-        <v>1</v>
-      </c>
-      <c r="J106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>624</v>
-      </c>
-      <c r="B107" t="s">
-        <v>60</v>
-      </c>
-      <c r="C107" t="s">
-        <v>559</v>
-      </c>
-      <c r="D107" t="s">
-        <v>154</v>
-      </c>
-      <c r="E107" t="s">
-        <v>559</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107" t="s">
-        <v>99</v>
-      </c>
-      <c r="H107" t="s">
-        <v>487</v>
-      </c>
-      <c r="I107">
-        <v>1</v>
-      </c>
-      <c r="J107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>625</v>
-      </c>
-      <c r="B108" t="s">
-        <v>60</v>
-      </c>
-      <c r="C108" t="s">
-        <v>561</v>
-      </c>
-      <c r="D108" t="s">
-        <v>503</v>
-      </c>
-      <c r="E108" t="s">
-        <v>561</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108" t="s">
-        <v>99</v>
-      </c>
-      <c r="H108" t="s">
-        <v>487</v>
-      </c>
-      <c r="I108">
-        <v>2</v>
-      </c>
-      <c r="J108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>411</v>
-      </c>
-      <c r="B109" t="s">
-        <v>64</v>
-      </c>
-      <c r="C109" t="s">
-        <v>496</v>
-      </c>
-      <c r="D109" t="s">
-        <v>130</v>
-      </c>
-      <c r="E109" t="s">
-        <v>497</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109" t="s">
-        <v>99</v>
-      </c>
-      <c r="H109" t="s">
-        <v>478</v>
-      </c>
-      <c r="I109">
-        <v>1</v>
-      </c>
-      <c r="J109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>412</v>
-      </c>
-      <c r="B110" t="s">
-        <v>64</v>
-      </c>
-      <c r="C110" t="s">
-        <v>498</v>
-      </c>
-      <c r="D110" t="s">
-        <v>499</v>
-      </c>
-      <c r="E110" t="s">
-        <v>500</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110" t="s">
-        <v>99</v>
-      </c>
-      <c r="H110" t="s">
-        <v>478</v>
-      </c>
-      <c r="I110">
-        <v>2</v>
-      </c>
-      <c r="J110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>626</v>
-      </c>
-      <c r="B111" t="s">
-        <v>64</v>
-      </c>
-      <c r="C111" t="s">
-        <v>502</v>
-      </c>
-      <c r="D111" t="s">
-        <v>503</v>
-      </c>
-      <c r="E111" t="s">
-        <v>504</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111" t="s">
-        <v>99</v>
-      </c>
-      <c r="H111" t="s">
-        <v>478</v>
-      </c>
-      <c r="I111">
-        <v>15</v>
-      </c>
-      <c r="J111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>627</v>
-      </c>
-      <c r="B112" t="s">
-        <v>64</v>
-      </c>
-      <c r="C112" t="s">
-        <v>506</v>
-      </c>
-      <c r="D112" s="1">
-        <v>0</v>
-      </c>
-      <c r="E112" t="s">
-        <v>506</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112" t="s">
-        <v>99</v>
-      </c>
-      <c r="H112" t="s">
-        <v>507</v>
-      </c>
-      <c r="I112">
-        <v>15</v>
-      </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>628</v>
-      </c>
-      <c r="B113" t="s">
-        <v>64</v>
-      </c>
-      <c r="C113" t="s">
-        <v>509</v>
-      </c>
-      <c r="D113" t="s">
-        <v>499</v>
-      </c>
-      <c r="E113" t="s">
-        <v>510</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113" t="s">
-        <v>99</v>
-      </c>
-      <c r="H113" t="s">
-        <v>487</v>
-      </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>629</v>
-      </c>
-      <c r="B114" t="s">
-        <v>64</v>
-      </c>
-      <c r="C114" t="s">
-        <v>512</v>
-      </c>
-      <c r="D114" t="s">
-        <v>513</v>
-      </c>
-      <c r="E114" t="s">
-        <v>514</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114" t="s">
-        <v>99</v>
-      </c>
-      <c r="H114" t="s">
-        <v>487</v>
-      </c>
-      <c r="I114">
-        <v>2</v>
-      </c>
-      <c r="J114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>630</v>
-      </c>
-      <c r="B115" t="s">
-        <v>64</v>
-      </c>
-      <c r="C115" t="s">
-        <v>516</v>
-      </c>
-      <c r="D115" t="s">
-        <v>517</v>
-      </c>
-      <c r="E115" t="s">
-        <v>518</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115" t="s">
-        <v>99</v>
-      </c>
-      <c r="H115" t="s">
-        <v>487</v>
-      </c>
-      <c r="I115">
-        <v>15</v>
-      </c>
-      <c r="J115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>631</v>
-      </c>
-      <c r="B116" t="s">
-        <v>64</v>
-      </c>
-      <c r="C116" t="s">
-        <v>520</v>
-      </c>
-      <c r="D116" t="s">
-        <v>521</v>
-      </c>
-      <c r="E116" t="s">
-        <v>520</v>
-      </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-      <c r="G116" t="s">
-        <v>99</v>
-      </c>
-      <c r="H116" t="s">
-        <v>507</v>
-      </c>
-      <c r="I116">
-        <v>15</v>
-      </c>
-      <c r="J116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>632</v>
-      </c>
-      <c r="B117" t="s">
-        <v>64</v>
-      </c>
-      <c r="C117" t="s">
-        <v>523</v>
-      </c>
-      <c r="D117" t="s">
-        <v>524</v>
-      </c>
-      <c r="E117" t="s">
-        <v>523</v>
-      </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="G117" t="s">
-        <v>99</v>
-      </c>
-      <c r="H117" t="s">
-        <v>478</v>
-      </c>
-      <c r="I117">
-        <v>1</v>
-      </c>
-      <c r="J117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>633</v>
-      </c>
-      <c r="B118" t="s">
-        <v>64</v>
-      </c>
-      <c r="C118" t="s">
-        <v>556</v>
-      </c>
-      <c r="D118" t="s">
-        <v>499</v>
-      </c>
-      <c r="E118" t="s">
-        <v>556</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="G118" t="s">
-        <v>99</v>
-      </c>
-      <c r="H118" t="s">
-        <v>478</v>
-      </c>
-      <c r="I118">
-        <v>1</v>
-      </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>634</v>
-      </c>
-      <c r="B119" t="s">
-        <v>64</v>
-      </c>
-      <c r="C119" t="s">
-        <v>528</v>
-      </c>
-      <c r="D119" t="s">
-        <v>154</v>
-      </c>
-      <c r="E119" t="s">
-        <v>528</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119" t="s">
-        <v>99</v>
-      </c>
-      <c r="H119" t="s">
-        <v>478</v>
-      </c>
-      <c r="I119">
-        <v>2</v>
-      </c>
-      <c r="J119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>635</v>
-      </c>
-      <c r="B120" t="s">
-        <v>64</v>
-      </c>
-      <c r="C120" t="s">
-        <v>636</v>
-      </c>
-      <c r="D120" t="s">
-        <v>154</v>
-      </c>
-      <c r="E120" t="s">
-        <v>636</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120" t="s">
-        <v>99</v>
-      </c>
-      <c r="H120" t="s">
-        <v>487</v>
-      </c>
-      <c r="I120">
-        <v>1</v>
-      </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>637</v>
-      </c>
-      <c r="B121" t="s">
-        <v>64</v>
-      </c>
-      <c r="C121" t="s">
-        <v>561</v>
-      </c>
-      <c r="D121" t="s">
-        <v>503</v>
-      </c>
-      <c r="E121" t="s">
-        <v>561</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
-      <c r="G121" t="s">
-        <v>99</v>
-      </c>
-      <c r="H121" t="s">
-        <v>487</v>
-      </c>
-      <c r="I121">
-        <v>2</v>
-      </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>421</v>
-      </c>
-      <c r="B122" t="s">
-        <v>68</v>
-      </c>
-      <c r="C122" t="s">
-        <v>496</v>
-      </c>
-      <c r="D122" t="s">
-        <v>130</v>
-      </c>
-      <c r="E122" t="s">
-        <v>497</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122" t="s">
-        <v>99</v>
-      </c>
-      <c r="H122" t="s">
-        <v>478</v>
-      </c>
-      <c r="I122">
-        <v>1</v>
-      </c>
-      <c r="J122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>422</v>
-      </c>
-      <c r="B123" t="s">
-        <v>68</v>
-      </c>
-      <c r="C123" t="s">
-        <v>498</v>
-      </c>
-      <c r="D123" t="s">
-        <v>499</v>
-      </c>
-      <c r="E123" t="s">
-        <v>500</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123" t="s">
-        <v>99</v>
-      </c>
-      <c r="H123" t="s">
-        <v>478</v>
-      </c>
-      <c r="I123">
-        <v>2</v>
-      </c>
-      <c r="J123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>638</v>
-      </c>
-      <c r="B124" t="s">
-        <v>68</v>
-      </c>
-      <c r="C124" t="s">
-        <v>502</v>
-      </c>
-      <c r="D124" t="s">
-        <v>503</v>
-      </c>
-      <c r="E124" t="s">
-        <v>504</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124" t="s">
-        <v>99</v>
-      </c>
-      <c r="H124" t="s">
-        <v>478</v>
-      </c>
-      <c r="I124">
-        <v>15</v>
-      </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>639</v>
-      </c>
-      <c r="B125" t="s">
-        <v>68</v>
-      </c>
-      <c r="C125" t="s">
-        <v>506</v>
-      </c>
-      <c r="D125" s="1">
-        <v>0</v>
-      </c>
-      <c r="E125" t="s">
-        <v>506</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125" t="s">
-        <v>99</v>
-      </c>
-      <c r="H125" t="s">
-        <v>507</v>
-      </c>
-      <c r="I125">
-        <v>15</v>
-      </c>
-      <c r="J125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>640</v>
-      </c>
-      <c r="B126" t="s">
-        <v>68</v>
-      </c>
-      <c r="C126" t="s">
-        <v>509</v>
-      </c>
-      <c r="D126" t="s">
-        <v>499</v>
-      </c>
-      <c r="E126" t="s">
-        <v>510</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-      <c r="G126" t="s">
-        <v>99</v>
-      </c>
-      <c r="H126" t="s">
-        <v>487</v>
-      </c>
-      <c r="I126">
-        <v>1</v>
-      </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>641</v>
-      </c>
-      <c r="B127" t="s">
-        <v>68</v>
-      </c>
-      <c r="C127" t="s">
-        <v>512</v>
-      </c>
-      <c r="D127" t="s">
-        <v>513</v>
-      </c>
-      <c r="E127" t="s">
-        <v>514</v>
-      </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-      <c r="G127" t="s">
-        <v>99</v>
-      </c>
-      <c r="H127" t="s">
-        <v>487</v>
-      </c>
-      <c r="I127">
-        <v>2</v>
-      </c>
-      <c r="J127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>642</v>
-      </c>
-      <c r="B128" t="s">
-        <v>68</v>
-      </c>
-      <c r="C128" t="s">
-        <v>516</v>
-      </c>
-      <c r="D128" t="s">
-        <v>517</v>
-      </c>
-      <c r="E128" t="s">
-        <v>518</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
-      <c r="G128" t="s">
-        <v>99</v>
-      </c>
-      <c r="H128" t="s">
-        <v>487</v>
-      </c>
-      <c r="I128">
-        <v>15</v>
-      </c>
-      <c r="J128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>643</v>
-      </c>
-      <c r="B129" t="s">
-        <v>68</v>
-      </c>
-      <c r="C129" t="s">
-        <v>520</v>
-      </c>
-      <c r="D129" t="s">
-        <v>521</v>
-      </c>
-      <c r="E129" t="s">
-        <v>520</v>
-      </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
-      <c r="G129" t="s">
-        <v>99</v>
-      </c>
-      <c r="H129" t="s">
-        <v>507</v>
-      </c>
-      <c r="I129">
-        <v>15</v>
-      </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>644</v>
-      </c>
-      <c r="B130" t="s">
-        <v>68</v>
-      </c>
-      <c r="C130" t="s">
-        <v>556</v>
-      </c>
-      <c r="D130" t="s">
-        <v>499</v>
-      </c>
-      <c r="E130" t="s">
-        <v>556</v>
-      </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-      <c r="G130" t="s">
-        <v>99</v>
-      </c>
-      <c r="H130" t="s">
-        <v>478</v>
-      </c>
-      <c r="I130">
-        <v>1</v>
-      </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>645</v>
-      </c>
-      <c r="B131" t="s">
-        <v>68</v>
-      </c>
-      <c r="C131" t="s">
-        <v>646</v>
-      </c>
-      <c r="D131" t="s">
-        <v>154</v>
-      </c>
-      <c r="E131" t="s">
-        <v>646</v>
-      </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-      <c r="G131" t="s">
-        <v>99</v>
-      </c>
-      <c r="H131" t="s">
-        <v>478</v>
-      </c>
-      <c r="I131">
-        <v>2</v>
-      </c>
-      <c r="J131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>647</v>
-      </c>
-      <c r="B132" t="s">
-        <v>68</v>
-      </c>
-      <c r="C132" t="s">
-        <v>648</v>
-      </c>
-      <c r="D132" t="s">
-        <v>154</v>
-      </c>
-      <c r="E132" t="s">
-        <v>648</v>
-      </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
-      <c r="G132" t="s">
-        <v>99</v>
-      </c>
-      <c r="H132" t="s">
-        <v>487</v>
-      </c>
-      <c r="I132">
-        <v>1</v>
-      </c>
-      <c r="J132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>649</v>
-      </c>
-      <c r="B133" t="s">
-        <v>68</v>
-      </c>
-      <c r="C133" t="s">
-        <v>650</v>
-      </c>
-      <c r="D133" t="s">
-        <v>503</v>
-      </c>
-      <c r="E133" t="s">
-        <v>650</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="G133" t="s">
-        <v>99</v>
-      </c>
-      <c r="I133">
-        <v>2</v>
-      </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>439</v>
-      </c>
-      <c r="B134" t="s">
-        <v>72</v>
-      </c>
-      <c r="C134" t="s">
-        <v>496</v>
-      </c>
-      <c r="D134" t="s">
-        <v>130</v>
-      </c>
-      <c r="E134" t="s">
-        <v>497</v>
-      </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-      <c r="G134" t="s">
-        <v>99</v>
-      </c>
-      <c r="H134" t="s">
-        <v>478</v>
-      </c>
-      <c r="I134">
-        <v>1</v>
-      </c>
-      <c r="J134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>440</v>
-      </c>
-      <c r="B135" t="s">
-        <v>72</v>
-      </c>
-      <c r="C135" t="s">
-        <v>498</v>
-      </c>
-      <c r="D135" t="s">
-        <v>499</v>
-      </c>
-      <c r="E135" t="s">
-        <v>500</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135" t="s">
-        <v>99</v>
-      </c>
-      <c r="H135" t="s">
-        <v>478</v>
-      </c>
-      <c r="I135">
-        <v>2</v>
-      </c>
-      <c r="J135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>651</v>
-      </c>
-      <c r="B136" t="s">
-        <v>72</v>
-      </c>
-      <c r="C136" t="s">
-        <v>502</v>
-      </c>
-      <c r="D136" t="s">
-        <v>503</v>
-      </c>
-      <c r="E136" t="s">
-        <v>504</v>
-      </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-      <c r="G136" t="s">
-        <v>99</v>
-      </c>
-      <c r="H136" t="s">
-        <v>478</v>
-      </c>
-      <c r="I136">
-        <v>15</v>
-      </c>
-      <c r="J136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>652</v>
-      </c>
-      <c r="B137" t="s">
-        <v>72</v>
-      </c>
-      <c r="C137" t="s">
-        <v>506</v>
-      </c>
-      <c r="D137" s="1">
-        <v>0</v>
-      </c>
-      <c r="E137" t="s">
-        <v>506</v>
-      </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-      <c r="G137" t="s">
-        <v>99</v>
-      </c>
-      <c r="H137" t="s">
-        <v>507</v>
-      </c>
-      <c r="I137">
-        <v>15</v>
-      </c>
-      <c r="J137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>653</v>
-      </c>
-      <c r="B138" t="s">
-        <v>72</v>
-      </c>
-      <c r="C138" t="s">
-        <v>509</v>
-      </c>
-      <c r="D138" t="s">
-        <v>499</v>
-      </c>
-      <c r="E138" t="s">
-        <v>510</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-      <c r="G138" t="s">
-        <v>99</v>
-      </c>
-      <c r="H138" t="s">
-        <v>487</v>
-      </c>
-      <c r="I138">
-        <v>1</v>
-      </c>
-      <c r="J138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>654</v>
-      </c>
-      <c r="B139" t="s">
-        <v>72</v>
-      </c>
-      <c r="C139" t="s">
-        <v>512</v>
-      </c>
-      <c r="D139" t="s">
-        <v>513</v>
-      </c>
-      <c r="E139" t="s">
-        <v>514</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-      <c r="G139" t="s">
-        <v>99</v>
-      </c>
-      <c r="H139" t="s">
-        <v>487</v>
-      </c>
-      <c r="I139">
-        <v>2</v>
-      </c>
-      <c r="J139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>655</v>
-      </c>
-      <c r="B140" t="s">
-        <v>72</v>
-      </c>
-      <c r="C140" t="s">
-        <v>516</v>
-      </c>
-      <c r="D140" t="s">
-        <v>517</v>
-      </c>
-      <c r="E140" t="s">
-        <v>518</v>
-      </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-      <c r="G140" t="s">
-        <v>99</v>
-      </c>
-      <c r="H140" t="s">
-        <v>487</v>
-      </c>
-      <c r="I140">
-        <v>15</v>
-      </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>656</v>
-      </c>
-      <c r="B141" t="s">
-        <v>72</v>
-      </c>
-      <c r="C141" t="s">
-        <v>520</v>
-      </c>
-      <c r="D141" t="s">
-        <v>521</v>
-      </c>
-      <c r="E141" t="s">
-        <v>520</v>
-      </c>
-      <c r="F141">
-        <v>0</v>
-      </c>
-      <c r="G141" t="s">
-        <v>99</v>
-      </c>
-      <c r="H141" t="s">
-        <v>507</v>
-      </c>
-      <c r="I141">
-        <v>15</v>
-      </c>
-      <c r="J141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>657</v>
-      </c>
-      <c r="B142" t="s">
-        <v>72</v>
-      </c>
-      <c r="C142" t="s">
-        <v>559</v>
-      </c>
-      <c r="D142" t="s">
-        <v>154</v>
-      </c>
-      <c r="E142" t="s">
-        <v>559</v>
-      </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
-      <c r="G142" t="s">
-        <v>99</v>
-      </c>
-      <c r="H142" t="s">
-        <v>487</v>
-      </c>
-      <c r="I142">
-        <v>1</v>
-      </c>
-      <c r="J142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>658</v>
-      </c>
-      <c r="B143" t="s">
-        <v>72</v>
-      </c>
-      <c r="C143" t="s">
-        <v>659</v>
-      </c>
-      <c r="D143" t="s">
-        <v>499</v>
-      </c>
-      <c r="E143" t="s">
-        <v>659</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
-      <c r="G143" t="s">
-        <v>99</v>
-      </c>
-      <c r="H143" t="s">
-        <v>478</v>
-      </c>
-      <c r="I143">
-        <v>1</v>
-      </c>
-      <c r="J143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>660</v>
-      </c>
-      <c r="B144" t="s">
-        <v>72</v>
-      </c>
-      <c r="C144" t="s">
-        <v>661</v>
-      </c>
-      <c r="D144" t="s">
-        <v>154</v>
-      </c>
-      <c r="E144" t="s">
-        <v>661</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-      <c r="G144" t="s">
-        <v>99</v>
-      </c>
-      <c r="H144" t="s">
-        <v>478</v>
-      </c>
-      <c r="I144">
-        <v>2</v>
-      </c>
-      <c r="J144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>662</v>
-      </c>
-      <c r="B145" t="s">
-        <v>72</v>
-      </c>
-      <c r="C145" t="s">
-        <v>663</v>
-      </c>
-      <c r="D145" t="s">
-        <v>154</v>
-      </c>
-      <c r="E145" t="s">
-        <v>663</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-      <c r="G145" t="s">
-        <v>99</v>
-      </c>
-      <c r="H145" t="s">
-        <v>487</v>
-      </c>
-      <c r="I145">
-        <v>1</v>
-      </c>
-      <c r="J145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>664</v>
-      </c>
-      <c r="B146" t="s">
-        <v>72</v>
-      </c>
-      <c r="C146" t="s">
-        <v>665</v>
-      </c>
-      <c r="D146" t="s">
-        <v>503</v>
-      </c>
-      <c r="E146" t="s">
-        <v>665</v>
-      </c>
-      <c r="F146">
-        <v>0</v>
-      </c>
-      <c r="G146" t="s">
-        <v>99</v>
-      </c>
-      <c r="H146" t="s">
-        <v>487</v>
-      </c>
-      <c r="I146">
-        <v>2</v>
-      </c>
-      <c r="J146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>666</v>
-      </c>
-      <c r="B147" t="s">
-        <v>72</v>
-      </c>
-      <c r="C147" t="s">
-        <v>288</v>
-      </c>
-      <c r="D147" t="s">
-        <v>123</v>
-      </c>
-      <c r="E147" t="s">
-        <v>288</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
-      <c r="G147" t="s">
-        <v>99</v>
-      </c>
-      <c r="H147" t="s">
-        <v>478</v>
-      </c>
-      <c r="I147">
-        <v>1</v>
-      </c>
-      <c r="J147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>667</v>
-      </c>
-      <c r="B148" t="s">
-        <v>72</v>
-      </c>
-      <c r="C148" t="s">
-        <v>290</v>
-      </c>
-      <c r="D148" t="s">
-        <v>165</v>
-      </c>
-      <c r="E148" t="s">
-        <v>290</v>
-      </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-      <c r="G148" t="s">
-        <v>99</v>
-      </c>
-      <c r="H148" t="s">
-        <v>487</v>
-      </c>
-      <c r="I148">
-        <v>1</v>
-      </c>
-      <c r="J148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>450</v>
-      </c>
-      <c r="B149" t="s">
-        <v>76</v>
-      </c>
-      <c r="C149" t="s">
-        <v>496</v>
-      </c>
-      <c r="D149" t="s">
-        <v>130</v>
-      </c>
-      <c r="E149" t="s">
-        <v>497</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-      <c r="G149" t="s">
-        <v>99</v>
-      </c>
-      <c r="H149" t="s">
-        <v>478</v>
-      </c>
-      <c r="I149">
-        <v>1</v>
-      </c>
-      <c r="J149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>451</v>
-      </c>
-      <c r="B150" t="s">
-        <v>76</v>
-      </c>
-      <c r="C150" t="s">
-        <v>498</v>
-      </c>
-      <c r="D150" t="s">
-        <v>499</v>
-      </c>
-      <c r="E150" t="s">
-        <v>500</v>
-      </c>
-      <c r="F150">
-        <v>0</v>
-      </c>
-      <c r="G150" t="s">
-        <v>99</v>
-      </c>
-      <c r="H150" t="s">
-        <v>478</v>
-      </c>
-      <c r="I150">
-        <v>2</v>
-      </c>
-      <c r="J150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>668</v>
-      </c>
-      <c r="B151" t="s">
-        <v>76</v>
-      </c>
-      <c r="C151" t="s">
-        <v>502</v>
-      </c>
-      <c r="D151" t="s">
-        <v>503</v>
-      </c>
-      <c r="E151" t="s">
-        <v>504</v>
-      </c>
-      <c r="F151">
-        <v>0</v>
-      </c>
-      <c r="G151" t="s">
-        <v>99</v>
-      </c>
-      <c r="H151" t="s">
-        <v>478</v>
-      </c>
-      <c r="I151">
-        <v>15</v>
-      </c>
-      <c r="J151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>669</v>
-      </c>
-      <c r="B152" t="s">
-        <v>76</v>
-      </c>
-      <c r="C152" t="s">
-        <v>506</v>
-      </c>
-      <c r="D152" s="1">
-        <v>0</v>
-      </c>
-      <c r="E152" t="s">
-        <v>506</v>
-      </c>
-      <c r="F152">
-        <v>0</v>
-      </c>
-      <c r="G152" t="s">
-        <v>99</v>
-      </c>
-      <c r="H152" t="s">
-        <v>507</v>
-      </c>
-      <c r="I152">
-        <v>15</v>
-      </c>
-      <c r="J152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>670</v>
-      </c>
-      <c r="B153" t="s">
-        <v>76</v>
-      </c>
-      <c r="C153" t="s">
-        <v>509</v>
-      </c>
-      <c r="D153" t="s">
-        <v>499</v>
-      </c>
-      <c r="E153" t="s">
-        <v>510</v>
-      </c>
-      <c r="F153">
-        <v>0</v>
-      </c>
-      <c r="G153" t="s">
-        <v>99</v>
-      </c>
-      <c r="H153" t="s">
-        <v>487</v>
-      </c>
-      <c r="I153">
-        <v>1</v>
-      </c>
-      <c r="J153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>671</v>
-      </c>
-      <c r="B154" t="s">
-        <v>76</v>
-      </c>
-      <c r="C154" t="s">
-        <v>512</v>
-      </c>
-      <c r="D154" t="s">
-        <v>513</v>
-      </c>
-      <c r="E154" t="s">
-        <v>514</v>
-      </c>
-      <c r="F154">
-        <v>0</v>
-      </c>
-      <c r="G154" t="s">
-        <v>99</v>
-      </c>
-      <c r="H154" t="s">
-        <v>487</v>
-      </c>
-      <c r="I154">
-        <v>2</v>
-      </c>
-      <c r="J154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>672</v>
-      </c>
-      <c r="B155" t="s">
-        <v>76</v>
-      </c>
-      <c r="C155" t="s">
-        <v>516</v>
-      </c>
-      <c r="D155" t="s">
-        <v>517</v>
-      </c>
-      <c r="E155" t="s">
-        <v>518</v>
-      </c>
-      <c r="F155">
-        <v>0</v>
-      </c>
-      <c r="G155" t="s">
-        <v>99</v>
-      </c>
-      <c r="H155" t="s">
-        <v>487</v>
-      </c>
-      <c r="I155">
-        <v>15</v>
-      </c>
-      <c r="J155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>673</v>
-      </c>
-      <c r="B156" t="s">
-        <v>76</v>
-      </c>
-      <c r="C156" t="s">
-        <v>520</v>
-      </c>
-      <c r="D156" t="s">
-        <v>521</v>
-      </c>
-      <c r="E156" t="s">
-        <v>520</v>
-      </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
-      <c r="G156" t="s">
-        <v>99</v>
-      </c>
-      <c r="H156" t="s">
-        <v>507</v>
-      </c>
-      <c r="I156">
-        <v>15</v>
-      </c>
-      <c r="J156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>674</v>
-      </c>
-      <c r="B157" t="s">
-        <v>76</v>
-      </c>
-      <c r="C157" t="s">
-        <v>675</v>
-      </c>
-      <c r="D157" t="s">
-        <v>499</v>
-      </c>
-      <c r="E157" t="s">
-        <v>675</v>
-      </c>
-      <c r="F157">
-        <v>0</v>
-      </c>
-      <c r="G157" t="s">
-        <v>99</v>
-      </c>
-      <c r="H157" t="s">
-        <v>478</v>
-      </c>
-      <c r="I157">
-        <v>1</v>
-      </c>
-      <c r="J157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>676</v>
-      </c>
-      <c r="B158" t="s">
-        <v>76</v>
-      </c>
-      <c r="C158" t="s">
-        <v>528</v>
-      </c>
-      <c r="D158" t="s">
-        <v>154</v>
-      </c>
-      <c r="E158" t="s">
-        <v>528</v>
-      </c>
-      <c r="F158">
-        <v>0</v>
-      </c>
-      <c r="G158" t="s">
-        <v>99</v>
-      </c>
-      <c r="H158" t="s">
-        <v>478</v>
-      </c>
-      <c r="I158">
-        <v>1</v>
-      </c>
-      <c r="J158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>677</v>
-      </c>
-      <c r="B159" t="s">
-        <v>76</v>
-      </c>
-      <c r="C159" t="s">
-        <v>559</v>
-      </c>
-      <c r="D159" t="s">
-        <v>154</v>
-      </c>
-      <c r="E159" t="s">
-        <v>559</v>
-      </c>
-      <c r="F159">
-        <v>0</v>
-      </c>
-      <c r="G159" t="s">
-        <v>99</v>
-      </c>
-      <c r="H159" t="s">
-        <v>487</v>
-      </c>
-      <c r="I159">
-        <v>1</v>
-      </c>
-      <c r="J159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>678</v>
-      </c>
-      <c r="B160" t="s">
-        <v>76</v>
-      </c>
-      <c r="C160" t="s">
-        <v>561</v>
-      </c>
-      <c r="D160" t="s">
-        <v>503</v>
-      </c>
-      <c r="E160" t="s">
-        <v>561</v>
-      </c>
-      <c r="F160">
-        <v>0</v>
-      </c>
-      <c r="G160" t="s">
-        <v>99</v>
-      </c>
-      <c r="H160" t="s">
-        <v>487</v>
-      </c>
-      <c r="I160">
-        <v>1</v>
-      </c>
-      <c r="J160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>461</v>
-      </c>
-      <c r="B161" t="s">
-        <v>80</v>
-      </c>
-      <c r="C161" t="s">
-        <v>496</v>
-      </c>
-      <c r="D161" t="s">
-        <v>130</v>
-      </c>
-      <c r="E161" t="s">
-        <v>497</v>
-      </c>
-      <c r="F161">
-        <v>0</v>
-      </c>
-      <c r="G161" t="s">
-        <v>99</v>
-      </c>
-      <c r="H161" t="s">
-        <v>478</v>
-      </c>
-      <c r="I161">
-        <v>1</v>
-      </c>
-      <c r="J161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>462</v>
-      </c>
-      <c r="B162" t="s">
-        <v>80</v>
-      </c>
-      <c r="C162" t="s">
-        <v>498</v>
-      </c>
-      <c r="D162" t="s">
-        <v>499</v>
-      </c>
-      <c r="E162" t="s">
-        <v>500</v>
-      </c>
-      <c r="F162">
-        <v>0</v>
-      </c>
-      <c r="G162" t="s">
-        <v>99</v>
-      </c>
-      <c r="H162" t="s">
-        <v>478</v>
-      </c>
-      <c r="I162">
-        <v>2</v>
-      </c>
-      <c r="J162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>679</v>
-      </c>
-      <c r="B163" t="s">
-        <v>80</v>
-      </c>
-      <c r="C163" t="s">
-        <v>502</v>
-      </c>
-      <c r="D163" t="s">
-        <v>503</v>
-      </c>
-      <c r="E163" t="s">
-        <v>504</v>
-      </c>
-      <c r="F163">
-        <v>0</v>
-      </c>
-      <c r="G163" t="s">
-        <v>99</v>
-      </c>
-      <c r="H163" t="s">
-        <v>478</v>
-      </c>
-      <c r="I163">
-        <v>15</v>
-      </c>
-      <c r="J163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>680</v>
-      </c>
-      <c r="B164" t="s">
-        <v>80</v>
-      </c>
-      <c r="C164" t="s">
-        <v>506</v>
-      </c>
-      <c r="D164" s="1">
-        <v>0</v>
-      </c>
-      <c r="E164" t="s">
-        <v>506</v>
-      </c>
-      <c r="F164">
-        <v>0</v>
-      </c>
-      <c r="G164" t="s">
-        <v>99</v>
-      </c>
-      <c r="H164" t="s">
-        <v>507</v>
-      </c>
-      <c r="I164">
-        <v>15</v>
-      </c>
-      <c r="J164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>681</v>
-      </c>
-      <c r="B165" t="s">
-        <v>80</v>
-      </c>
-      <c r="C165" t="s">
-        <v>509</v>
-      </c>
-      <c r="D165" t="s">
-        <v>499</v>
-      </c>
-      <c r="E165" t="s">
-        <v>510</v>
-      </c>
-      <c r="F165">
-        <v>0</v>
-      </c>
-      <c r="G165" t="s">
-        <v>99</v>
-      </c>
-      <c r="H165" t="s">
-        <v>487</v>
-      </c>
-      <c r="I165">
-        <v>1</v>
-      </c>
-      <c r="J165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>682</v>
-      </c>
-      <c r="B166" t="s">
-        <v>80</v>
-      </c>
-      <c r="C166" t="s">
-        <v>512</v>
-      </c>
-      <c r="D166" t="s">
-        <v>513</v>
-      </c>
-      <c r="E166" t="s">
-        <v>514</v>
-      </c>
-      <c r="F166">
-        <v>0</v>
-      </c>
-      <c r="G166" t="s">
-        <v>99</v>
-      </c>
-      <c r="H166" t="s">
-        <v>487</v>
-      </c>
-      <c r="I166">
-        <v>2</v>
-      </c>
-      <c r="J166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>683</v>
-      </c>
-      <c r="B167" t="s">
-        <v>80</v>
-      </c>
-      <c r="C167" t="s">
-        <v>516</v>
-      </c>
-      <c r="D167" t="s">
-        <v>517</v>
-      </c>
-      <c r="E167" t="s">
-        <v>518</v>
-      </c>
-      <c r="F167">
-        <v>0</v>
-      </c>
-      <c r="G167" t="s">
-        <v>99</v>
-      </c>
-      <c r="H167" t="s">
-        <v>487</v>
-      </c>
-      <c r="I167">
-        <v>15</v>
-      </c>
-      <c r="J167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>684</v>
-      </c>
-      <c r="B168" t="s">
-        <v>80</v>
-      </c>
-      <c r="C168" t="s">
-        <v>520</v>
-      </c>
-      <c r="D168" t="s">
-        <v>521</v>
-      </c>
-      <c r="E168" t="s">
-        <v>520</v>
-      </c>
-      <c r="F168">
-        <v>0</v>
-      </c>
-      <c r="G168" t="s">
-        <v>99</v>
-      </c>
-      <c r="H168" t="s">
-        <v>507</v>
-      </c>
-      <c r="I168">
-        <v>15</v>
-      </c>
-      <c r="J168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>685</v>
-      </c>
-      <c r="B169" t="s">
-        <v>80</v>
-      </c>
-      <c r="C169" t="s">
-        <v>496</v>
-      </c>
-      <c r="D169" t="s">
-        <v>499</v>
-      </c>
-      <c r="E169" t="s">
-        <v>496</v>
-      </c>
-      <c r="F169">
-        <v>0</v>
-      </c>
-      <c r="G169" t="s">
-        <v>99</v>
-      </c>
-      <c r="H169" t="s">
-        <v>478</v>
-      </c>
-      <c r="I169">
-        <v>1</v>
-      </c>
-      <c r="J169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>686</v>
-      </c>
-      <c r="B170" t="s">
-        <v>80</v>
-      </c>
-      <c r="C170" t="s">
-        <v>498</v>
-      </c>
-      <c r="D170" t="s">
-        <v>154</v>
-      </c>
-      <c r="E170" t="s">
-        <v>498</v>
-      </c>
-      <c r="F170">
-        <v>0</v>
-      </c>
-      <c r="G170" t="s">
-        <v>99</v>
-      </c>
-      <c r="H170" t="s">
-        <v>478</v>
-      </c>
-      <c r="I170">
-        <v>1</v>
-      </c>
-      <c r="J170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>687</v>
-      </c>
-      <c r="B171" t="s">
-        <v>80</v>
-      </c>
-      <c r="C171" t="s">
-        <v>502</v>
-      </c>
-      <c r="D171" t="s">
-        <v>503</v>
-      </c>
-      <c r="E171" t="s">
-        <v>502</v>
-      </c>
-      <c r="F171">
-        <v>0</v>
-      </c>
-      <c r="G171" t="s">
-        <v>99</v>
-      </c>
-      <c r="H171" t="s">
-        <v>478</v>
-      </c>
-      <c r="I171">
-        <v>1</v>
-      </c>
-      <c r="J171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>688</v>
-      </c>
-      <c r="B172" t="s">
-        <v>80</v>
-      </c>
-      <c r="C172" t="s">
-        <v>509</v>
-      </c>
-      <c r="D172" t="s">
-        <v>154</v>
-      </c>
-      <c r="E172" t="s">
-        <v>509</v>
-      </c>
-      <c r="F172">
-        <v>0</v>
-      </c>
-      <c r="G172" t="s">
-        <v>99</v>
-      </c>
-      <c r="H172" t="s">
-        <v>487</v>
-      </c>
-      <c r="I172">
-        <v>1</v>
-      </c>
-      <c r="J172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>689</v>
-      </c>
-      <c r="B173" t="s">
-        <v>80</v>
-      </c>
-      <c r="C173" t="s">
-        <v>512</v>
-      </c>
-      <c r="D173" t="s">
-        <v>503</v>
-      </c>
-      <c r="E173" t="s">
-        <v>512</v>
-      </c>
-      <c r="F173">
-        <v>0</v>
-      </c>
-      <c r="G173" t="s">
-        <v>99</v>
-      </c>
-      <c r="H173" t="s">
-        <v>487</v>
-      </c>
-      <c r="I173">
-        <v>1</v>
-      </c>
-      <c r="J173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>690</v>
-      </c>
-      <c r="B174" t="s">
-        <v>80</v>
-      </c>
-      <c r="C174" t="s">
-        <v>516</v>
-      </c>
-      <c r="D174" t="s">
-        <v>517</v>
-      </c>
-      <c r="E174" t="s">
-        <v>516</v>
-      </c>
-      <c r="F174">
-        <v>0</v>
-      </c>
-      <c r="G174" t="s">
-        <v>99</v>
-      </c>
-      <c r="H174" t="s">
-        <v>487</v>
-      </c>
-      <c r="I174">
-        <v>1</v>
-      </c>
-      <c r="J174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>471</v>
-      </c>
-      <c r="B175" t="s">
-        <v>84</v>
-      </c>
-      <c r="C175" t="s">
-        <v>496</v>
-      </c>
-      <c r="D175" t="s">
-        <v>130</v>
-      </c>
-      <c r="E175" t="s">
-        <v>497</v>
-      </c>
-      <c r="F175">
-        <v>0</v>
-      </c>
-      <c r="G175" t="s">
-        <v>99</v>
-      </c>
-      <c r="H175" t="s">
-        <v>478</v>
-      </c>
-      <c r="I175">
-        <v>1</v>
-      </c>
-      <c r="J175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>472</v>
-      </c>
-      <c r="B176" t="s">
-        <v>84</v>
-      </c>
-      <c r="C176" t="s">
-        <v>498</v>
-      </c>
-      <c r="D176" t="s">
-        <v>499</v>
-      </c>
-      <c r="E176" t="s">
-        <v>500</v>
-      </c>
-      <c r="F176">
-        <v>0</v>
-      </c>
-      <c r="G176" t="s">
-        <v>99</v>
-      </c>
-      <c r="H176" t="s">
-        <v>478</v>
-      </c>
-      <c r="I176">
-        <v>2</v>
-      </c>
-      <c r="J176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>691</v>
-      </c>
-      <c r="B177" t="s">
-        <v>84</v>
-      </c>
-      <c r="C177" t="s">
-        <v>502</v>
-      </c>
-      <c r="D177" t="s">
-        <v>503</v>
-      </c>
-      <c r="E177" t="s">
-        <v>504</v>
-      </c>
-      <c r="F177">
-        <v>0</v>
-      </c>
-      <c r="G177" t="s">
-        <v>99</v>
-      </c>
-      <c r="H177" t="s">
-        <v>478</v>
-      </c>
-      <c r="I177">
-        <v>15</v>
-      </c>
-      <c r="J177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>692</v>
-      </c>
-      <c r="B178" t="s">
-        <v>84</v>
-      </c>
-      <c r="C178" t="s">
-        <v>506</v>
-      </c>
-      <c r="D178" s="1">
-        <v>0</v>
-      </c>
-      <c r="E178" t="s">
-        <v>506</v>
-      </c>
-      <c r="F178">
-        <v>0</v>
-      </c>
-      <c r="G178" t="s">
-        <v>99</v>
-      </c>
-      <c r="H178" t="s">
-        <v>507</v>
-      </c>
-      <c r="I178">
-        <v>15</v>
-      </c>
-      <c r="J178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>693</v>
-      </c>
-      <c r="B179" t="s">
-        <v>84</v>
-      </c>
-      <c r="C179" t="s">
-        <v>509</v>
-      </c>
-      <c r="D179" t="s">
-        <v>499</v>
-      </c>
-      <c r="E179" t="s">
-        <v>510</v>
-      </c>
-      <c r="F179">
-        <v>0</v>
-      </c>
-      <c r="G179" t="s">
-        <v>99</v>
-      </c>
-      <c r="H179" t="s">
-        <v>487</v>
-      </c>
-      <c r="I179">
-        <v>1</v>
-      </c>
-      <c r="J179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>694</v>
-      </c>
-      <c r="B180" t="s">
-        <v>84</v>
-      </c>
-      <c r="C180" t="s">
-        <v>512</v>
-      </c>
-      <c r="D180" t="s">
-        <v>513</v>
-      </c>
-      <c r="E180" t="s">
-        <v>514</v>
-      </c>
-      <c r="F180">
-        <v>0</v>
-      </c>
-      <c r="G180" t="s">
-        <v>99</v>
-      </c>
-      <c r="H180" t="s">
-        <v>487</v>
-      </c>
-      <c r="I180">
-        <v>2</v>
-      </c>
-      <c r="J180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>695</v>
-      </c>
-      <c r="B181" t="s">
-        <v>84</v>
-      </c>
-      <c r="C181" t="s">
-        <v>516</v>
-      </c>
-      <c r="D181" t="s">
-        <v>517</v>
-      </c>
-      <c r="E181" t="s">
-        <v>518</v>
-      </c>
-      <c r="F181">
-        <v>0</v>
-      </c>
-      <c r="G181" t="s">
-        <v>99</v>
-      </c>
-      <c r="H181" t="s">
-        <v>487</v>
-      </c>
-      <c r="I181">
-        <v>15</v>
-      </c>
-      <c r="J181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>696</v>
-      </c>
-      <c r="B182" t="s">
-        <v>84</v>
-      </c>
-      <c r="C182" t="s">
-        <v>520</v>
-      </c>
-      <c r="D182" t="s">
-        <v>521</v>
-      </c>
-      <c r="E182" t="s">
-        <v>520</v>
-      </c>
-      <c r="F182">
-        <v>0</v>
-      </c>
-      <c r="G182" t="s">
-        <v>99</v>
-      </c>
-      <c r="H182" t="s">
-        <v>507</v>
-      </c>
-      <c r="I182">
-        <v>15</v>
-      </c>
-      <c r="J182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>697</v>
-      </c>
-      <c r="B183" t="s">
-        <v>84</v>
-      </c>
-      <c r="C183" t="s">
-        <v>659</v>
-      </c>
-      <c r="D183" t="s">
-        <v>499</v>
-      </c>
-      <c r="E183" t="s">
-        <v>659</v>
-      </c>
-      <c r="F183">
-        <v>0</v>
-      </c>
-      <c r="G183" t="s">
-        <v>99</v>
-      </c>
-      <c r="H183" t="s">
-        <v>478</v>
-      </c>
-      <c r="I183">
-        <v>1</v>
-      </c>
-      <c r="J183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>698</v>
-      </c>
-      <c r="B184" t="s">
-        <v>84</v>
-      </c>
-      <c r="C184" t="s">
-        <v>661</v>
-      </c>
-      <c r="D184" s="2">
-        <v>208.33333333333334</v>
-      </c>
-      <c r="E184" t="s">
-        <v>661</v>
-      </c>
-      <c r="F184">
-        <v>0</v>
-      </c>
-      <c r="G184" t="s">
-        <v>99</v>
-      </c>
-      <c r="H184" t="s">
-        <v>478</v>
-      </c>
-      <c r="I184">
-        <v>1</v>
-      </c>
-      <c r="J184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>699</v>
-      </c>
-      <c r="B185" t="s">
-        <v>84</v>
-      </c>
-      <c r="C185" t="s">
-        <v>661</v>
-      </c>
-      <c r="D185" t="s">
-        <v>154</v>
-      </c>
-      <c r="E185" t="s">
-        <v>661</v>
-      </c>
-      <c r="F185">
-        <v>0</v>
-      </c>
-      <c r="G185" t="s">
-        <v>99</v>
-      </c>
-      <c r="H185" t="s">
-        <v>478</v>
-      </c>
-      <c r="I185">
-        <v>1</v>
-      </c>
-      <c r="J185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>700</v>
-      </c>
-      <c r="B186" t="s">
-        <v>84</v>
-      </c>
-      <c r="C186" t="s">
-        <v>502</v>
-      </c>
-      <c r="D186" t="s">
-        <v>503</v>
-      </c>
-      <c r="E186" t="s">
-        <v>502</v>
-      </c>
-      <c r="F186">
-        <v>0</v>
-      </c>
-      <c r="G186" t="s">
-        <v>99</v>
-      </c>
-      <c r="H186" t="s">
-        <v>478</v>
-      </c>
-      <c r="I186">
-        <v>1</v>
-      </c>
-      <c r="J186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>701</v>
-      </c>
-      <c r="B187" t="s">
-        <v>84</v>
-      </c>
-      <c r="C187" t="s">
-        <v>663</v>
-      </c>
-      <c r="D187" t="s">
-        <v>154</v>
-      </c>
-      <c r="E187" t="s">
-        <v>663</v>
-      </c>
-      <c r="F187">
-        <v>0</v>
-      </c>
-      <c r="G187" t="s">
-        <v>99</v>
-      </c>
-      <c r="H187" t="s">
-        <v>487</v>
-      </c>
-      <c r="I187">
-        <v>1</v>
-      </c>
-      <c r="J187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>702</v>
-      </c>
-      <c r="B188" t="s">
-        <v>84</v>
-      </c>
-      <c r="C188" t="s">
-        <v>665</v>
-      </c>
-      <c r="D188" t="s">
-        <v>503</v>
-      </c>
-      <c r="E188" t="s">
-        <v>703</v>
-      </c>
-      <c r="F188">
-        <v>0</v>
-      </c>
-      <c r="G188" t="s">
-        <v>99</v>
-      </c>
-      <c r="H188" t="s">
-        <v>487</v>
-      </c>
-      <c r="I188">
-        <v>1</v>
-      </c>
-      <c r="J188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>704</v>
-      </c>
-      <c r="B189" t="s">
-        <v>84</v>
-      </c>
-      <c r="C189" t="s">
-        <v>516</v>
-      </c>
-      <c r="D189" t="s">
-        <v>517</v>
-      </c>
-      <c r="E189" t="s">
-        <v>516</v>
-      </c>
-      <c r="F189">
-        <v>0</v>
-      </c>
-      <c r="G189" t="s">
-        <v>99</v>
-      </c>
-      <c r="H189" t="s">
-        <v>487</v>
-      </c>
-      <c r="I189">
-        <v>1</v>
-      </c>
-      <c r="J189">
-        <v>0</v>
-      </c>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D52" s="1"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D65" s="1"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D73" s="1"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D86" s="1"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D99" s="1"/>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D112" s="1"/>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D125" s="1"/>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D137" s="1"/>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D152" s="1"/>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D164" s="1"/>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D178" s="1"/>
+    </row>
+    <row r="184" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D184" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
